--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>date</t>
   </si>
@@ -37,673 +37,736 @@
     <t>REV_DIFF</t>
   </si>
   <si>
-    <t>12434.61</t>
-  </si>
-  <si>
-    <t>14369.44</t>
-  </si>
-  <si>
-    <t>18295.08</t>
-  </si>
-  <si>
-    <t>23261.70</t>
-  </si>
-  <si>
-    <t>30833.73</t>
-  </si>
-  <si>
-    <t>44188.06</t>
-  </si>
-  <si>
-    <t>42240.46</t>
-  </si>
-  <si>
-    <t>21031.89</t>
-  </si>
-  <si>
-    <t>27210.73</t>
-  </si>
-  <si>
-    <t>18165.46</t>
-  </si>
-  <si>
-    <t>16740.84</t>
-  </si>
-  <si>
-    <t>28878.01</t>
-  </si>
-  <si>
-    <t>22464.52</t>
-  </si>
-  <si>
-    <t>23179.94</t>
-  </si>
-  <si>
-    <t>13074.61</t>
-  </si>
-  <si>
-    <t>8686.79</t>
-  </si>
-  <si>
-    <t>9221.88</t>
-  </si>
-  <si>
-    <t>11104.94</t>
-  </si>
-  <si>
-    <t>15268.14</t>
-  </si>
-  <si>
-    <t>17736.26</t>
-  </si>
-  <si>
-    <t>26185.89</t>
-  </si>
-  <si>
-    <t>26471.58</t>
-  </si>
-  <si>
-    <t>28334.52</t>
-  </si>
-  <si>
-    <t>29326.99</t>
-  </si>
-  <si>
-    <t>37182.47</t>
-  </si>
-  <si>
-    <t>39065.73</t>
-  </si>
-  <si>
-    <t>40314.04</t>
-  </si>
-  <si>
-    <t>70099.72</t>
-  </si>
-  <si>
-    <t>25459.92</t>
-  </si>
-  <si>
-    <t>16098.56</t>
-  </si>
-  <si>
-    <t>12006.14</t>
-  </si>
-  <si>
-    <t>11241.15</t>
-  </si>
-  <si>
-    <t>9171.54</t>
-  </si>
-  <si>
-    <t>5225.83</t>
-  </si>
-  <si>
-    <t>6490.76</t>
-  </si>
-  <si>
-    <t>4898.19</t>
-  </si>
-  <si>
-    <t>4687.11</t>
-  </si>
-  <si>
-    <t>6239.91</t>
-  </si>
-  <si>
-    <t>4167.31</t>
-  </si>
-  <si>
-    <t>1519.63</t>
-  </si>
-  <si>
-    <t>5262.66</t>
-  </si>
-  <si>
-    <t>14353.10</t>
-  </si>
-  <si>
-    <t>2792.94</t>
-  </si>
-  <si>
-    <t>1925.55</t>
-  </si>
-  <si>
-    <t>3300.73</t>
-  </si>
-  <si>
-    <t>9877.84</t>
-  </si>
-  <si>
-    <t>34909.59</t>
-  </si>
-  <si>
-    <t>7950.04</t>
-  </si>
-  <si>
-    <t>8648.12</t>
-  </si>
-  <si>
-    <t>2872.02</t>
-  </si>
-  <si>
-    <t>6263.07</t>
-  </si>
-  <si>
-    <t>6472.61</t>
-  </si>
-  <si>
-    <t>6125.78</t>
-  </si>
-  <si>
-    <t>5245.14</t>
-  </si>
-  <si>
-    <t>7273.90</t>
-  </si>
-  <si>
-    <t>9512.84</t>
-  </si>
-  <si>
-    <t>3166.42</t>
-  </si>
-  <si>
-    <t>2451.83</t>
-  </si>
-  <si>
-    <t>1460.87</t>
-  </si>
-  <si>
-    <t>1467.94</t>
-  </si>
-  <si>
-    <t>1679.45</t>
-  </si>
-  <si>
-    <t>6151.85</t>
-  </si>
-  <si>
-    <t>22091.31</t>
-  </si>
-  <si>
-    <t>34514.63</t>
-  </si>
-  <si>
-    <t>63015.54</t>
-  </si>
-  <si>
-    <t>63342.15</t>
-  </si>
-  <si>
-    <t>41008.71</t>
-  </si>
-  <si>
-    <t>28975.43</t>
-  </si>
-  <si>
-    <t>10643.58</t>
-  </si>
-  <si>
-    <t>3979.56</t>
-  </si>
-  <si>
-    <t>176.86</t>
-  </si>
-  <si>
-    <t>513.76</t>
-  </si>
-  <si>
-    <t>908.26</t>
-  </si>
-  <si>
-    <t>1444.50</t>
-  </si>
-  <si>
-    <t>1438.53</t>
-  </si>
-  <si>
-    <t>1996.33</t>
-  </si>
-  <si>
-    <t>3279.82</t>
-  </si>
-  <si>
-    <t>2817.89</t>
-  </si>
-  <si>
-    <t>39534.24</t>
-  </si>
-  <si>
-    <t>39121.10</t>
-  </si>
-  <si>
-    <t>4538.99</t>
-  </si>
-  <si>
-    <t>245.64</t>
-  </si>
-  <si>
-    <t>5055.36</t>
-  </si>
-  <si>
-    <t>9799.71</t>
-  </si>
-  <si>
-    <t>7574.71</t>
-  </si>
-  <si>
-    <t>7732.28</t>
-  </si>
-  <si>
-    <t>7393.75</t>
-  </si>
-  <si>
-    <t>7718.52</t>
-  </si>
-  <si>
-    <t>7254.30</t>
-  </si>
-  <si>
-    <t>4655.59</t>
-  </si>
-  <si>
-    <t>13431.83</t>
-  </si>
-  <si>
-    <t>223.85</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>291.74</t>
-  </si>
-  <si>
-    <t>589.91</t>
-  </si>
-  <si>
-    <t>2435.32</t>
-  </si>
-  <si>
-    <t>4436.24</t>
-  </si>
-  <si>
-    <t>22095.41</t>
-  </si>
-  <si>
-    <t>29691.74</t>
-  </si>
-  <si>
-    <t>28971.93</t>
-  </si>
-  <si>
-    <t>29223.79</t>
-  </si>
-  <si>
-    <t>14052.95</t>
-  </si>
-  <si>
-    <t>14676.61</t>
-  </si>
-  <si>
-    <t>16352.71</t>
-  </si>
-  <si>
-    <t>24543.74</t>
-  </si>
-  <si>
-    <t>33881.27</t>
-  </si>
-  <si>
-    <t>30043.34</t>
-  </si>
-  <si>
-    <t>40083.60</t>
-  </si>
-  <si>
-    <t>29616.74</t>
-  </si>
-  <si>
-    <t>1320.27</t>
-  </si>
-  <si>
-    <t>5595.98</t>
-  </si>
-  <si>
-    <t>7024.36</t>
-  </si>
-  <si>
-    <t>6850.78</t>
-  </si>
-  <si>
-    <t>204.93</t>
-  </si>
-  <si>
-    <t>1424.10</t>
-  </si>
-  <si>
-    <t>1244.95</t>
-  </si>
-  <si>
-    <t>1409.63</t>
-  </si>
-  <si>
-    <t>4412.80</t>
-  </si>
-  <si>
-    <t>4182.84</t>
-  </si>
-  <si>
-    <t>1695.88</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>1.44</t>
-  </si>
-  <si>
-    <t>2.08</t>
-  </si>
-  <si>
-    <t>181.30</t>
-  </si>
-  <si>
-    <t>193.27</t>
-  </si>
-  <si>
-    <t>194.94</t>
-  </si>
-  <si>
-    <t>203.54</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>11.27</t>
-  </si>
-  <si>
-    <t>1.54</t>
-  </si>
-  <si>
-    <t>1.84</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>1.06</t>
-  </si>
-  <si>
-    <t>7.61</t>
-  </si>
-  <si>
-    <t>6.79</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>4.74</t>
-  </si>
-  <si>
-    <t>7.11</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>4.96</t>
-  </si>
-  <si>
-    <t>0.72</t>
-  </si>
-  <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.86</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>1.69</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>6.90</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>1.04</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>0.98</t>
-  </si>
-  <si>
-    <t>2.07</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>2.84</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>1.37</t>
-  </si>
-  <si>
-    <t>4.54</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>6.43</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>4.99</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>1.32</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>5.27</t>
-  </si>
-  <si>
-    <t>4.34</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>1.36</t>
-  </si>
-  <si>
-    <t>1.78</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>1.16</t>
+    <t>26173.06</t>
+  </si>
+  <si>
+    <t>25757.94</t>
+  </si>
+  <si>
+    <t>25394.63</t>
+  </si>
+  <si>
+    <t>15353.39</t>
+  </si>
+  <si>
+    <t>11851.77</t>
+  </si>
+  <si>
+    <t>12705.52</t>
+  </si>
+  <si>
+    <t>11991.91</t>
+  </si>
+  <si>
+    <t>13575.19</t>
+  </si>
+  <si>
+    <t>20273.19</t>
+  </si>
+  <si>
+    <t>23195.93</t>
+  </si>
+  <si>
+    <t>19338.45</t>
+  </si>
+  <si>
+    <t>18453.76</t>
+  </si>
+  <si>
+    <t>18706.70</t>
+  </si>
+  <si>
+    <t>15743.60</t>
+  </si>
+  <si>
+    <t>20613.79</t>
+  </si>
+  <si>
+    <t>19784.39</t>
+  </si>
+  <si>
+    <t>20771.28</t>
+  </si>
+  <si>
+    <t>27758.23</t>
+  </si>
+  <si>
+    <t>40899.30</t>
+  </si>
+  <si>
+    <t>50063.21</t>
+  </si>
+  <si>
+    <t>47404.17</t>
+  </si>
+  <si>
+    <t>38933.62</t>
+  </si>
+  <si>
+    <t>44172.76</t>
+  </si>
+  <si>
+    <t>43220.36</t>
+  </si>
+  <si>
+    <t>31384.40</t>
+  </si>
+  <si>
+    <t>23437.30</t>
+  </si>
+  <si>
+    <t>28118.40</t>
+  </si>
+  <si>
+    <t>29297.60</t>
+  </si>
+  <si>
+    <t>25041.90</t>
+  </si>
+  <si>
+    <t>29745.60</t>
+  </si>
+  <si>
+    <t>27353.80</t>
+  </si>
+  <si>
+    <t>30816.90</t>
+  </si>
+  <si>
+    <t>24395.90</t>
+  </si>
+  <si>
+    <t>20989.60</t>
+  </si>
+  <si>
+    <t>18913.90</t>
+  </si>
+  <si>
+    <t>30409.54</t>
+  </si>
+  <si>
+    <t>40116.04</t>
+  </si>
+  <si>
+    <t>42398.06</t>
+  </si>
+  <si>
+    <t>30280.72</t>
+  </si>
+  <si>
+    <t>13794.34</t>
+  </si>
+  <si>
+    <t>10777.64</t>
+  </si>
+  <si>
+    <t>13099.70</t>
+  </si>
+  <si>
+    <t>17740.60</t>
+  </si>
+  <si>
+    <t>30422.10</t>
+  </si>
+  <si>
+    <t>29943.60</t>
+  </si>
+  <si>
+    <t>21482.40</t>
+  </si>
+  <si>
+    <t>22132.60</t>
+  </si>
+  <si>
+    <t>22391.20</t>
+  </si>
+  <si>
+    <t>19611.20</t>
+  </si>
+  <si>
+    <t>25752.20</t>
+  </si>
+  <si>
+    <t>31000.99</t>
+  </si>
+  <si>
+    <t>30599.19</t>
+  </si>
+  <si>
+    <t>15728.50</t>
+  </si>
+  <si>
+    <t>12255.50</t>
+  </si>
+  <si>
+    <t>8474.01</t>
+  </si>
+  <si>
+    <t>14267.51</t>
+  </si>
+  <si>
+    <t>29030.20</t>
+  </si>
+  <si>
+    <t>36542.70</t>
+  </si>
+  <si>
+    <t>33484.90</t>
+  </si>
+  <si>
+    <t>15085.75</t>
+  </si>
+  <si>
+    <t>11164.65</t>
+  </si>
+  <si>
+    <t>8127.75</t>
+  </si>
+  <si>
+    <t>6168.00</t>
+  </si>
+  <si>
+    <t>20643.38</t>
+  </si>
+  <si>
+    <t>55324.67</t>
+  </si>
+  <si>
+    <t>69200.27</t>
+  </si>
+  <si>
+    <t>62163.25</t>
+  </si>
+  <si>
+    <t>6099.50</t>
+  </si>
+  <si>
+    <t>3204.40</t>
+  </si>
+  <si>
+    <t>6203.00</t>
+  </si>
+  <si>
+    <t>31993.98</t>
+  </si>
+  <si>
+    <t>43810.40</t>
+  </si>
+  <si>
+    <t>56816.09</t>
+  </si>
+  <si>
+    <t>43884.56</t>
+  </si>
+  <si>
+    <t>34652.39</t>
+  </si>
+  <si>
+    <t>29602.79</t>
+  </si>
+  <si>
+    <t>28724.30</t>
+  </si>
+  <si>
+    <t>44142.40</t>
+  </si>
+  <si>
+    <t>37124.25</t>
+  </si>
+  <si>
+    <t>36777.53</t>
+  </si>
+  <si>
+    <t>20042.50</t>
+  </si>
+  <si>
+    <t>19260.74</t>
+  </si>
+  <si>
+    <t>19219.24</t>
+  </si>
+  <si>
+    <t>18537.34</t>
+  </si>
+  <si>
+    <t>24607.00</t>
+  </si>
+  <si>
+    <t>31014.80</t>
+  </si>
+  <si>
+    <t>27636.00</t>
+  </si>
+  <si>
+    <t>33294.10</t>
+  </si>
+  <si>
+    <t>32753.30</t>
+  </si>
+  <si>
+    <t>30510.20</t>
+  </si>
+  <si>
+    <t>27784.10</t>
+  </si>
+  <si>
+    <t>25101.20</t>
+  </si>
+  <si>
+    <t>19674.30</t>
+  </si>
+  <si>
+    <t>21141.10</t>
+  </si>
+  <si>
+    <t>13484.00</t>
+  </si>
+  <si>
+    <t>15965.10</t>
+  </si>
+  <si>
+    <t>16776.15</t>
+  </si>
+  <si>
+    <t>22081.35</t>
+  </si>
+  <si>
+    <t>28422.85</t>
+  </si>
+  <si>
+    <t>25577.35</t>
+  </si>
+  <si>
+    <t>20035.95</t>
+  </si>
+  <si>
+    <t>13485.45</t>
+  </si>
+  <si>
+    <t>12146.95</t>
+  </si>
+  <si>
+    <t>12531.25</t>
+  </si>
+  <si>
+    <t>8464.30</t>
+  </si>
+  <si>
+    <t>17164.20</t>
+  </si>
+  <si>
+    <t>17791.90</t>
+  </si>
+  <si>
+    <t>20209.70</t>
+  </si>
+  <si>
+    <t>13959.50</t>
+  </si>
+  <si>
+    <t>12338.80</t>
+  </si>
+  <si>
+    <t>9505.40</t>
+  </si>
+  <si>
+    <t>18669.00</t>
+  </si>
+  <si>
+    <t>19850.60</t>
+  </si>
+  <si>
+    <t>14919.13</t>
+  </si>
+  <si>
+    <t>12641.12</t>
+  </si>
+  <si>
+    <t>10391.71</t>
+  </si>
+  <si>
+    <t>12735.04</t>
+  </si>
+  <si>
+    <t>12236.04</t>
+  </si>
+  <si>
+    <t>13035.34</t>
+  </si>
+  <si>
+    <t>15623.54</t>
+  </si>
+  <si>
+    <t>8417.20</t>
+  </si>
+  <si>
+    <t>7786.00</t>
+  </si>
+  <si>
+    <t>114995.94</t>
+  </si>
+  <si>
+    <t>115411.06</t>
+  </si>
+  <si>
+    <t>115774.37</t>
+  </si>
+  <si>
+    <t>115306.61</t>
+  </si>
+  <si>
+    <t>92774.23</t>
+  </si>
+  <si>
+    <t>85325.48</t>
+  </si>
+  <si>
+    <t>107101.09</t>
+  </si>
+  <si>
+    <t>142553.81</t>
+  </si>
+  <si>
+    <t>131049.81</t>
+  </si>
+  <si>
+    <t>134012.07</t>
+  </si>
+  <si>
+    <t>123362.55</t>
+  </si>
+  <si>
+    <t>119688.24</t>
+  </si>
+  <si>
+    <t>114575.30</t>
+  </si>
+  <si>
+    <t>119047.40</t>
+  </si>
+  <si>
+    <t>102257.21</t>
+  </si>
+  <si>
+    <t>110515.61</t>
+  </si>
+  <si>
+    <t>136838.72</t>
+  </si>
+  <si>
+    <t>124427.77</t>
+  </si>
+  <si>
+    <t>113021.70</t>
+  </si>
+  <si>
+    <t>144800.79</t>
+  </si>
+  <si>
+    <t>153429.83</t>
+  </si>
+  <si>
+    <t>167363.38</t>
+  </si>
+  <si>
+    <t>195025.24</t>
+  </si>
+  <si>
+    <t>202077.64</t>
+  </si>
+  <si>
+    <t>173316.60</t>
+  </si>
+  <si>
+    <t>177353.70</t>
+  </si>
+  <si>
+    <t>154178.60</t>
+  </si>
+  <si>
+    <t>160398.40</t>
+  </si>
+  <si>
+    <t>113745.10</t>
+  </si>
+  <si>
+    <t>141492.40</t>
+  </si>
+  <si>
+    <t>160912.20</t>
+  </si>
+  <si>
+    <t>145135.10</t>
+  </si>
+  <si>
+    <t>126531.10</t>
+  </si>
+  <si>
+    <t>80229.40</t>
+  </si>
+  <si>
+    <t>75416.10</t>
+  </si>
+  <si>
+    <t>70128.46</t>
+  </si>
+  <si>
+    <t>67678.96</t>
+  </si>
+  <si>
+    <t>69609.94</t>
+  </si>
+  <si>
+    <t>68715.28</t>
+  </si>
+  <si>
+    <t>90086.66</t>
+  </si>
+  <si>
+    <t>85987.36</t>
+  </si>
+  <si>
+    <t>93364.30</t>
+  </si>
+  <si>
+    <t>104511.40</t>
+  </si>
+  <si>
+    <t>108270.90</t>
+  </si>
+  <si>
+    <t>125390.40</t>
+  </si>
+  <si>
+    <t>120646.60</t>
+  </si>
+  <si>
+    <t>129314.40</t>
+  </si>
+  <si>
+    <t>101814.80</t>
+  </si>
+  <si>
+    <t>126379.80</t>
+  </si>
+  <si>
+    <t>148546.80</t>
+  </si>
+  <si>
+    <t>111392.01</t>
+  </si>
+  <si>
+    <t>35406.81</t>
+  </si>
+  <si>
+    <t>70696.50</t>
+  </si>
+  <si>
+    <t>86211.50</t>
+  </si>
+  <si>
+    <t>72193.99</t>
+  </si>
+  <si>
+    <t>89544.49</t>
+  </si>
+  <si>
+    <t>103207.80</t>
+  </si>
+  <si>
+    <t>71886.30</t>
+  </si>
+  <si>
+    <t>54383.10</t>
+  </si>
+  <si>
+    <t>110155.25</t>
+  </si>
+  <si>
+    <t>98412.35</t>
+  </si>
+  <si>
+    <t>142205.25</t>
+  </si>
+  <si>
+    <t>135644.00</t>
+  </si>
+  <si>
+    <t>128917.62</t>
+  </si>
+  <si>
+    <t>113984.33</t>
+  </si>
+  <si>
+    <t>97217.73</t>
+  </si>
+  <si>
+    <t>100389.75</t>
+  </si>
+  <si>
+    <t>131524.50</t>
+  </si>
+  <si>
+    <t>107101.60</t>
+  </si>
+  <si>
+    <t>115006.00</t>
+  </si>
+  <si>
+    <t>79170.02</t>
+  </si>
+  <si>
+    <t>101138.60</t>
+  </si>
+  <si>
+    <t>102436.91</t>
+  </si>
+  <si>
+    <t>27614.44</t>
+  </si>
+  <si>
+    <t>54586.61</t>
+  </si>
+  <si>
+    <t>31075.21</t>
+  </si>
+  <si>
+    <t>137473.70</t>
+  </si>
+  <si>
+    <t>121396.60</t>
+  </si>
+  <si>
+    <t>108523.75</t>
+  </si>
+  <si>
+    <t>126607.47</t>
+  </si>
+  <si>
+    <t>124912.50</t>
+  </si>
+  <si>
+    <t>113049.26</t>
+  </si>
+  <si>
+    <t>103963.76</t>
+  </si>
+  <si>
+    <t>57488.66</t>
+  </si>
+  <si>
+    <t>43634.00</t>
+  </si>
+  <si>
+    <t>25132.20</t>
+  </si>
+  <si>
+    <t>27833.00</t>
+  </si>
+  <si>
+    <t>48635.90</t>
+  </si>
+  <si>
+    <t>27890.70</t>
+  </si>
+  <si>
+    <t>45671.80</t>
+  </si>
+  <si>
+    <t>71158.90</t>
+  </si>
+  <si>
+    <t>54534.80</t>
+  </si>
+  <si>
+    <t>90430.70</t>
+  </si>
+  <si>
+    <t>79697.90</t>
+  </si>
+  <si>
+    <t>104095.00</t>
+  </si>
+  <si>
+    <t>101641.90</t>
+  </si>
+  <si>
+    <t>107923.85</t>
+  </si>
+  <si>
+    <t>24355.65</t>
+  </si>
+  <si>
+    <t>519.85</t>
+  </si>
+  <si>
+    <t>77617.65</t>
+  </si>
+  <si>
+    <t>73855.05</t>
+  </si>
+  <si>
+    <t>11217.55</t>
+  </si>
+  <si>
+    <t>8448.05</t>
+  </si>
+  <si>
+    <t>37200.75</t>
+  </si>
+  <si>
+    <t>119217.70</t>
+  </si>
+  <si>
+    <t>110902.80</t>
+  </si>
+  <si>
+    <t>79668.10</t>
+  </si>
+  <si>
+    <t>146003.30</t>
+  </si>
+  <si>
+    <t>96930.50</t>
+  </si>
+  <si>
+    <t>106552.20</t>
+  </si>
+  <si>
+    <t>84516.60</t>
+  </si>
+  <si>
+    <t>90394.00</t>
+  </si>
+  <si>
+    <t>108022.40</t>
+  </si>
+  <si>
+    <t>31907.87</t>
+  </si>
+  <si>
+    <t>74089.88</t>
+  </si>
+  <si>
+    <t>117139.29</t>
+  </si>
+  <si>
+    <t>102017.96</t>
+  </si>
+  <si>
+    <t>106785.96</t>
+  </si>
+  <si>
+    <t>74786.66</t>
+  </si>
+  <si>
+    <t>92727.46</t>
+  </si>
+  <si>
+    <t>120694.80</t>
+  </si>
+  <si>
+    <t>105095.00</t>
   </si>
 </sst>
 </file>
@@ -1096,1048 +1159,1048 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44899</v>
+        <v>44903</v>
       </c>
       <c r="B2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>12436</v>
+        <v>141169</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44900</v>
+        <v>44904</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>14368</v>
+        <v>141169</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44901</v>
+        <v>44905</v>
       </c>
       <c r="B4">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>18293</v>
+        <v>141169</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44902</v>
+        <v>44906</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>23443</v>
+        <v>130660</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44903</v>
+        <v>44907</v>
       </c>
       <c r="B6">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>31027</v>
+        <v>104626</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44904</v>
+        <v>44908</v>
       </c>
       <c r="B7">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>44383</v>
+        <v>98031</v>
       </c>
       <c r="G7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44905</v>
+        <v>44909</v>
       </c>
       <c r="B8">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>42444</v>
+        <v>119093</v>
       </c>
       <c r="G8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44906</v>
+        <v>44910</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>21031</v>
+        <v>156129</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44907</v>
+        <v>44911</v>
       </c>
       <c r="B10">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C10">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>27222</v>
+        <v>151323</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44908</v>
+        <v>44912</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11">
-        <v>18167</v>
+        <v>157208</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44909</v>
+        <v>44913</v>
       </c>
       <c r="B12">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>16739</v>
+        <v>142701</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44910</v>
+        <v>44914</v>
       </c>
       <c r="B13">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>28879</v>
+        <v>138142</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44911</v>
+        <v>44915</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C14">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14">
-        <v>22471</v>
+        <v>133282</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44912</v>
+        <v>44916</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>23181</v>
+        <v>134791</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44913</v>
+        <v>44917</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16">
-        <v>13067</v>
+        <v>122871</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44914</v>
+        <v>44918</v>
       </c>
       <c r="B17">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C17">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17">
-        <v>8680</v>
+        <v>130300</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44915</v>
+        <v>44919</v>
       </c>
       <c r="B18">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18">
-        <v>9223</v>
+        <v>157610</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44916</v>
+        <v>44920</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19">
-        <v>11105</v>
+        <v>152186</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44917</v>
+        <v>44921</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20">
-        <v>15268</v>
+        <v>153921</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44918</v>
+        <v>44922</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C21">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
       <c r="F21">
-        <v>17741</v>
+        <v>194864</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44919</v>
+        <v>44923</v>
       </c>
       <c r="B22">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C22">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22">
-        <v>26193</v>
+        <v>200834</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44920</v>
+        <v>44924</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C23">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23">
-        <v>26474</v>
+        <v>206297</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44921</v>
+        <v>44925</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24">
-        <v>28333</v>
+        <v>239198</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44922</v>
+        <v>44926</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C25">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25">
-        <v>29326</v>
+        <v>245298</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44923</v>
+        <v>44927</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="C26">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
       </c>
       <c r="F26">
-        <v>37179</v>
+        <v>204701</v>
       </c>
       <c r="G26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44924</v>
+        <v>44928</v>
       </c>
       <c r="B27">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C27">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27">
-        <v>39065</v>
+        <v>200791</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="B28">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28">
-        <v>40319</v>
+        <v>182297</v>
       </c>
       <c r="G28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44926</v>
+        <v>44930</v>
       </c>
       <c r="B29">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
       </c>
       <c r="F29">
-        <v>70099</v>
+        <v>189696</v>
       </c>
       <c r="G29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44927</v>
+        <v>44931</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
       <c r="F30">
-        <v>25459</v>
+        <v>138787</v>
       </c>
       <c r="G30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44928</v>
+        <v>44932</v>
       </c>
       <c r="B31">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31">
-        <v>16101</v>
+        <v>171238</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44929</v>
+        <v>44933</v>
       </c>
       <c r="B32">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32">
-        <v>12009</v>
+        <v>188266</v>
       </c>
       <c r="G32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44930</v>
+        <v>44934</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
       <c r="F33">
-        <v>11242</v>
+        <v>175952</v>
       </c>
       <c r="G33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44931</v>
+        <v>44935</v>
       </c>
       <c r="B34">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
       </c>
       <c r="F34">
-        <v>9171</v>
+        <v>150927</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44932</v>
+        <v>44936</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>5226</v>
+        <v>101219</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44933</v>
+        <v>44937</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C36">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36">
-        <v>6491</v>
+        <v>94330</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44934</v>
+        <v>44938</v>
       </c>
       <c r="B37">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
         <v>42</v>
       </c>
       <c r="F37">
-        <v>4899</v>
+        <v>100538</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44935</v>
+        <v>44939</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
       </c>
       <c r="F38">
-        <v>4690</v>
+        <v>107795</v>
       </c>
       <c r="G38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44936</v>
+        <v>44940</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
       </c>
       <c r="F39">
-        <v>6243</v>
+        <v>112008</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44937</v>
+        <v>44941</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40">
-        <v>4169</v>
+        <v>98996</v>
       </c>
       <c r="G40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44938</v>
+        <v>44942</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
       <c r="F41">
-        <v>1519</v>
+        <v>103881</v>
       </c>
       <c r="G41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44939</v>
+        <v>44943</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
       </c>
       <c r="F42">
-        <v>5262</v>
+        <v>96765</v>
       </c>
       <c r="G42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44940</v>
+        <v>44944</v>
       </c>
       <c r="B43">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C43">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
       <c r="F43">
-        <v>14360</v>
+        <v>106464</v>
       </c>
       <c r="G43" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44941</v>
+        <v>44945</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44">
-        <v>2793</v>
+        <v>122252</v>
       </c>
       <c r="G44" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44942</v>
+        <v>44946</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" t="s">
         <v>50</v>
       </c>
       <c r="F45">
-        <v>1925</v>
+        <v>138693</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44943</v>
+        <v>44947</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
         <v>51</v>
       </c>
       <c r="F46">
-        <v>3301</v>
+        <v>155334</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44944</v>
+        <v>44948</v>
       </c>
       <c r="B47">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2146,1758 +2209,1758 @@
         <v>52</v>
       </c>
       <c r="F47">
-        <v>9877</v>
+        <v>142129</v>
       </c>
       <c r="G47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44945</v>
+        <v>44949</v>
       </c>
       <c r="B48">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
         <v>53</v>
       </c>
       <c r="F48">
-        <v>34910</v>
+        <v>151447</v>
       </c>
       <c r="G48" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44946</v>
+        <v>44950</v>
       </c>
       <c r="B49">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
         <v>54</v>
       </c>
       <c r="F49">
-        <v>7949</v>
+        <v>124206</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44947</v>
+        <v>44951</v>
       </c>
       <c r="B50">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
         <v>55</v>
       </c>
       <c r="F50">
-        <v>8652</v>
+        <v>145991</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44948</v>
+        <v>44952</v>
       </c>
       <c r="B51">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
       </c>
       <c r="F51">
-        <v>2873</v>
+        <v>174299</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44949</v>
+        <v>44953</v>
       </c>
       <c r="B52">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C52">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
         <v>57</v>
       </c>
       <c r="F52">
-        <v>6261</v>
+        <v>142393</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44950</v>
+        <v>44954</v>
       </c>
       <c r="B53">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C53">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
         <v>58</v>
       </c>
       <c r="F53">
-        <v>6471</v>
+        <v>66006</v>
       </c>
       <c r="G53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44951</v>
+        <v>44955</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C54">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
       </c>
       <c r="F54">
-        <v>6125</v>
+        <v>86425</v>
       </c>
       <c r="G54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44952</v>
+        <v>44956</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C55">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
       </c>
       <c r="F55">
-        <v>5245</v>
+        <v>98467</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
         <v>61</v>
       </c>
       <c r="F56">
-        <v>7272</v>
+        <v>80668</v>
       </c>
       <c r="G56" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44954</v>
+        <v>44958</v>
       </c>
       <c r="B57">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
         <v>62</v>
       </c>
       <c r="F57">
-        <v>9510</v>
+        <v>103812</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44955</v>
+        <v>44959</v>
       </c>
       <c r="B58">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
       </c>
       <c r="F58">
-        <v>3167</v>
+        <v>132238</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44956</v>
+        <v>44960</v>
       </c>
       <c r="B59">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>64</v>
       </c>
       <c r="F59">
-        <v>2451</v>
+        <v>108429</v>
       </c>
       <c r="G59" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44957</v>
+        <v>44961</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
         <v>65</v>
       </c>
       <c r="F60">
-        <v>1461</v>
+        <v>87868</v>
       </c>
       <c r="G60" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44958</v>
+        <v>44962</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
       </c>
       <c r="F61">
-        <v>1468</v>
+        <v>125241</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44959</v>
+        <v>44963</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
         <v>67</v>
       </c>
       <c r="F62">
-        <v>1679</v>
+        <v>109577</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E63" t="s">
         <v>68</v>
       </c>
       <c r="F63">
-        <v>6152</v>
+        <v>150333</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44961</v>
+        <v>44965</v>
       </c>
       <c r="B64">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C64">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
         <v>69</v>
       </c>
       <c r="F64">
-        <v>22089</v>
+        <v>141812</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44962</v>
+        <v>44966</v>
       </c>
       <c r="B65">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s">
         <v>70</v>
       </c>
       <c r="F65">
-        <v>34516</v>
+        <v>149561</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44963</v>
+        <v>44967</v>
       </c>
       <c r="B66">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c r="C66">
-        <v>214</v>
+        <v>69</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
         <v>71</v>
       </c>
       <c r="F66">
-        <v>63011</v>
+        <v>169309</v>
       </c>
       <c r="G66" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44964</v>
+        <v>44968</v>
       </c>
       <c r="B67">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="C67">
-        <v>215</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
       </c>
       <c r="F67">
-        <v>63338</v>
+        <v>166418</v>
       </c>
       <c r="G67" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="B68">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>73</v>
       </c>
       <c r="F68">
-        <v>41005</v>
+        <v>162553</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44966</v>
+        <v>44970</v>
       </c>
       <c r="B69">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C69">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E69" t="s">
         <v>74</v>
       </c>
       <c r="F69">
-        <v>28969</v>
+        <v>137624</v>
       </c>
       <c r="G69" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="B70">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
       </c>
       <c r="F70">
-        <v>10647</v>
+        <v>110306</v>
       </c>
       <c r="G70" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44968</v>
+        <v>44972</v>
       </c>
       <c r="B71">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E71" t="s">
         <v>76</v>
       </c>
       <c r="F71">
-        <v>3979</v>
+        <v>121209</v>
       </c>
       <c r="G71" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
         <v>77</v>
       </c>
       <c r="F72">
-        <v>177</v>
+        <v>111164</v>
       </c>
       <c r="G72" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44970</v>
+        <v>44974</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
         <v>78</v>
       </c>
       <c r="F73">
-        <v>514</v>
+        <v>144949</v>
       </c>
       <c r="G73" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44971</v>
+        <v>44975</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
         <v>79</v>
       </c>
       <c r="F74">
-        <v>908</v>
+        <v>159253</v>
       </c>
       <c r="G74" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44972</v>
+        <v>44976</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="C75">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
         <v>80</v>
       </c>
       <c r="F75">
-        <v>1445</v>
+        <v>71499</v>
       </c>
       <c r="G75" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44973</v>
+        <v>44977</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
         <v>81</v>
       </c>
       <c r="F76">
-        <v>1439</v>
+        <v>89239</v>
       </c>
       <c r="G76" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44974</v>
+        <v>44978</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E77" t="s">
         <v>82</v>
       </c>
       <c r="F77">
-        <v>1996</v>
+        <v>60678</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44975</v>
+        <v>44979</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
         <v>83</v>
       </c>
       <c r="F78">
-        <v>3279</v>
+        <v>166198</v>
       </c>
       <c r="G78" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44976</v>
+        <v>44980</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C79">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
       <c r="F79">
-        <v>2818</v>
+        <v>165539</v>
       </c>
       <c r="G79" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44977</v>
+        <v>44981</v>
       </c>
       <c r="B80">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80">
-        <v>39535</v>
+        <v>145648</v>
       </c>
       <c r="G80" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44978</v>
+        <v>44982</v>
       </c>
       <c r="B81">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
         <v>86</v>
       </c>
       <c r="F81">
-        <v>39121</v>
+        <v>163385</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44979</v>
+        <v>44983</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C82">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
       </c>
       <c r="F82">
-        <v>4534</v>
+        <v>144955</v>
       </c>
       <c r="G82" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
         <v>88</v>
       </c>
       <c r="F83">
-        <v>246</v>
+        <v>132310</v>
       </c>
       <c r="G83" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44981</v>
+        <v>44985</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C84">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
         <v>89</v>
       </c>
       <c r="F84">
-        <v>5055</v>
+        <v>123183</v>
       </c>
       <c r="G84" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44982</v>
+        <v>44986</v>
       </c>
       <c r="B85">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C85">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
         <v>90</v>
       </c>
       <c r="F85">
-        <v>9799</v>
+        <v>76026</v>
       </c>
       <c r="G85" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44983</v>
+        <v>44987</v>
       </c>
       <c r="B86">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
         <v>91</v>
       </c>
       <c r="F86">
-        <v>7574</v>
+        <v>68241</v>
       </c>
       <c r="G86" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B87">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C87">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E87" t="s">
         <v>92</v>
       </c>
       <c r="F87">
-        <v>7732</v>
+        <v>56147</v>
       </c>
       <c r="G87" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44985</v>
+        <v>44989</v>
       </c>
       <c r="B88">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C88">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E88" t="s">
         <v>93</v>
       </c>
       <c r="F88">
-        <v>7394</v>
+        <v>55469</v>
       </c>
       <c r="G88" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44986</v>
+        <v>44990</v>
       </c>
       <c r="B89">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C89">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E89" t="s">
         <v>94</v>
       </c>
       <c r="F89">
-        <v>7718</v>
+        <v>81930</v>
       </c>
       <c r="G89" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44987</v>
+        <v>44991</v>
       </c>
       <c r="B90">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C90">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
         <v>95</v>
       </c>
       <c r="F90">
-        <v>7254</v>
+        <v>60644</v>
       </c>
       <c r="G90" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B91">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
         <v>96</v>
       </c>
       <c r="F91">
-        <v>4656</v>
+        <v>76182</v>
       </c>
       <c r="G91" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44989</v>
+        <v>44993</v>
       </c>
       <c r="B92">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C92">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>97</v>
       </c>
       <c r="F92">
-        <v>13432</v>
+        <v>98943</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44990</v>
+        <v>44994</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E93" t="s">
         <v>98</v>
       </c>
       <c r="F93">
-        <v>224</v>
+        <v>79636</v>
       </c>
       <c r="G93" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44991</v>
+        <v>44995</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>99</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>110105</v>
       </c>
       <c r="G94" t="s">
-        <v>99</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44992</v>
+        <v>44996</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>100839</v>
       </c>
       <c r="G95" t="s">
-        <v>99</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44993</v>
+        <v>44997</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F96">
-        <v>292</v>
+        <v>117579</v>
       </c>
       <c r="G96" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F97">
-        <v>590</v>
+        <v>117607</v>
       </c>
       <c r="G97" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44995</v>
+        <v>44999</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F98">
-        <v>2434</v>
+        <v>124700</v>
       </c>
       <c r="G98" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>44996</v>
+        <v>45000</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F99">
-        <v>4438</v>
+        <v>46437</v>
       </c>
       <c r="G99" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>44997</v>
+        <v>45001</v>
       </c>
       <c r="B100">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C100">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F100">
-        <v>22093</v>
+        <v>27903</v>
       </c>
       <c r="G100" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>44998</v>
+        <v>45002</v>
       </c>
       <c r="B101">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="C101">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F101">
-        <v>29694</v>
+        <v>103195</v>
       </c>
       <c r="G101" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>44999</v>
+        <v>45003</v>
       </c>
       <c r="B102">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="C102">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F102">
-        <v>28975</v>
+        <v>93891</v>
       </c>
       <c r="G102" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45000</v>
+        <v>45004</v>
       </c>
       <c r="B103">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="C103">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F103">
-        <v>29227</v>
+        <v>24703</v>
       </c>
       <c r="G103" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45001</v>
+        <v>45005</v>
       </c>
       <c r="B104">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C104">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F104">
-        <v>14055</v>
+        <v>20595</v>
       </c>
       <c r="G104" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45002</v>
+        <v>45006</v>
       </c>
       <c r="B105">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C105">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F105">
-        <v>14674</v>
+        <v>49732</v>
       </c>
       <c r="G105" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45003</v>
+        <v>45007</v>
       </c>
       <c r="B106">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C106">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F106">
-        <v>16350</v>
+        <v>127682</v>
       </c>
       <c r="G106" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45004</v>
+        <v>45008</v>
       </c>
       <c r="B107">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="C107">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F107">
-        <v>24540</v>
+        <v>128067</v>
       </c>
       <c r="G107" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45005</v>
+        <v>45009</v>
       </c>
       <c r="B108">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C108">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F108">
-        <v>33876</v>
+        <v>97460</v>
       </c>
       <c r="G108" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45006</v>
+        <v>45010</v>
       </c>
       <c r="B109">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="C109">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F109">
-        <v>30039</v>
+        <v>166213</v>
       </c>
       <c r="G109" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45007</v>
+        <v>45011</v>
       </c>
       <c r="B110">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="C110">
-        <v>167</v>
+        <v>48</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F110">
-        <v>40083</v>
+        <v>110890</v>
       </c>
       <c r="G110" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45008</v>
+        <v>45012</v>
       </c>
       <c r="B111">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C111">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F111">
-        <v>29616</v>
+        <v>118891</v>
       </c>
       <c r="G111" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45009</v>
+        <v>45013</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F112">
-        <v>1321</v>
+        <v>94022</v>
       </c>
       <c r="G112" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45010</v>
+        <v>45014</v>
       </c>
       <c r="B113">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C113">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F113">
-        <v>5596</v>
+        <v>109063</v>
       </c>
       <c r="G113" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45011</v>
+        <v>45015</v>
       </c>
       <c r="B114">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C114">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F114">
-        <v>7023</v>
+        <v>127873</v>
       </c>
       <c r="G114" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45012</v>
+        <v>45016</v>
       </c>
       <c r="B115">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C115">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F115">
-        <v>6849</v>
+        <v>46827</v>
       </c>
       <c r="G115" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F116">
-        <v>205</v>
+        <v>86731</v>
       </c>
       <c r="G116" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45014</v>
+        <v>45018</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F117">
-        <v>205</v>
+        <v>127531</v>
       </c>
       <c r="G117" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45015</v>
+        <v>45019</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F118">
-        <v>1424</v>
+        <v>114753</v>
       </c>
       <c r="G118" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45016</v>
+        <v>45020</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F119">
-        <v>1245</v>
+        <v>119022</v>
       </c>
       <c r="G119" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45017</v>
+        <v>45021</v>
       </c>
       <c r="B120">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F120">
-        <v>1409</v>
+        <v>87822</v>
       </c>
       <c r="G120" t="s">
-        <v>165</v>
+        <v>247</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45018</v>
+        <v>45022</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C121">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F121">
-        <v>4413</v>
+        <v>108351</v>
       </c>
       <c r="G121" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45019</v>
+        <v>45023</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C122">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E122" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F122">
-        <v>4184</v>
+        <v>129112</v>
       </c>
       <c r="G122" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E123" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F123">
-        <v>1697</v>
+        <v>112881</v>
       </c>
       <c r="G123" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="402">
   <si>
     <t>date</t>
   </si>
@@ -37,736 +37,1189 @@
     <t>REV_DIFF</t>
   </si>
   <si>
-    <t>26173.06</t>
-  </si>
-  <si>
-    <t>25757.94</t>
-  </si>
-  <si>
-    <t>25394.63</t>
-  </si>
-  <si>
-    <t>15353.39</t>
-  </si>
-  <si>
-    <t>11851.77</t>
-  </si>
-  <si>
-    <t>12705.52</t>
-  </si>
-  <si>
-    <t>11991.91</t>
-  </si>
-  <si>
-    <t>13575.19</t>
-  </si>
-  <si>
-    <t>20273.19</t>
-  </si>
-  <si>
-    <t>23195.93</t>
-  </si>
-  <si>
-    <t>19338.45</t>
-  </si>
-  <si>
-    <t>18453.76</t>
-  </si>
-  <si>
-    <t>18706.70</t>
-  </si>
-  <si>
-    <t>15743.60</t>
-  </si>
-  <si>
-    <t>20613.79</t>
-  </si>
-  <si>
-    <t>19784.39</t>
-  </si>
-  <si>
-    <t>20771.28</t>
-  </si>
-  <si>
-    <t>27758.23</t>
-  </si>
-  <si>
-    <t>40899.30</t>
-  </si>
-  <si>
-    <t>50063.21</t>
-  </si>
-  <si>
-    <t>47404.17</t>
-  </si>
-  <si>
-    <t>38933.62</t>
-  </si>
-  <si>
-    <t>44172.76</t>
-  </si>
-  <si>
-    <t>43220.36</t>
-  </si>
-  <si>
-    <t>31384.40</t>
-  </si>
-  <si>
-    <t>23437.30</t>
-  </si>
-  <si>
-    <t>28118.40</t>
-  </si>
-  <si>
-    <t>29297.60</t>
-  </si>
-  <si>
-    <t>25041.90</t>
-  </si>
-  <si>
-    <t>29745.60</t>
-  </si>
-  <si>
-    <t>27353.80</t>
-  </si>
-  <si>
-    <t>30816.90</t>
-  </si>
-  <si>
-    <t>24395.90</t>
-  </si>
-  <si>
-    <t>20989.60</t>
-  </si>
-  <si>
-    <t>18913.90</t>
-  </si>
-  <si>
-    <t>30409.54</t>
-  </si>
-  <si>
-    <t>40116.04</t>
-  </si>
-  <si>
-    <t>42398.06</t>
-  </si>
-  <si>
-    <t>30280.72</t>
-  </si>
-  <si>
-    <t>13794.34</t>
-  </si>
-  <si>
-    <t>10777.64</t>
-  </si>
-  <si>
-    <t>13099.70</t>
-  </si>
-  <si>
-    <t>17740.60</t>
-  </si>
-  <si>
-    <t>30422.10</t>
-  </si>
-  <si>
-    <t>29943.60</t>
-  </si>
-  <si>
-    <t>21482.40</t>
-  </si>
-  <si>
-    <t>22132.60</t>
-  </si>
-  <si>
-    <t>22391.20</t>
-  </si>
-  <si>
-    <t>19611.20</t>
-  </si>
-  <si>
-    <t>25752.20</t>
-  </si>
-  <si>
-    <t>31000.99</t>
-  </si>
-  <si>
-    <t>30599.19</t>
-  </si>
-  <si>
-    <t>15728.50</t>
-  </si>
-  <si>
-    <t>12255.50</t>
-  </si>
-  <si>
-    <t>8474.01</t>
-  </si>
-  <si>
-    <t>14267.51</t>
-  </si>
-  <si>
-    <t>29030.20</t>
-  </si>
-  <si>
-    <t>36542.70</t>
-  </si>
-  <si>
-    <t>33484.90</t>
-  </si>
-  <si>
-    <t>15085.75</t>
-  </si>
-  <si>
-    <t>11164.65</t>
-  </si>
-  <si>
-    <t>8127.75</t>
-  </si>
-  <si>
-    <t>6168.00</t>
-  </si>
-  <si>
-    <t>20643.38</t>
-  </si>
-  <si>
-    <t>55324.67</t>
-  </si>
-  <si>
-    <t>69200.27</t>
-  </si>
-  <si>
-    <t>62163.25</t>
-  </si>
-  <si>
-    <t>6099.50</t>
-  </si>
-  <si>
-    <t>3204.40</t>
-  </si>
-  <si>
-    <t>6203.00</t>
-  </si>
-  <si>
-    <t>31993.98</t>
-  </si>
-  <si>
-    <t>43810.40</t>
-  </si>
-  <si>
-    <t>56816.09</t>
-  </si>
-  <si>
-    <t>43884.56</t>
-  </si>
-  <si>
-    <t>34652.39</t>
-  </si>
-  <si>
-    <t>29602.79</t>
-  </si>
-  <si>
-    <t>28724.30</t>
-  </si>
-  <si>
-    <t>44142.40</t>
-  </si>
-  <si>
-    <t>37124.25</t>
-  </si>
-  <si>
-    <t>36777.53</t>
-  </si>
-  <si>
-    <t>20042.50</t>
-  </si>
-  <si>
-    <t>19260.74</t>
-  </si>
-  <si>
-    <t>19219.24</t>
-  </si>
-  <si>
-    <t>18537.34</t>
-  </si>
-  <si>
-    <t>24607.00</t>
-  </si>
-  <si>
-    <t>31014.80</t>
-  </si>
-  <si>
-    <t>27636.00</t>
-  </si>
-  <si>
-    <t>33294.10</t>
-  </si>
-  <si>
-    <t>32753.30</t>
-  </si>
-  <si>
-    <t>30510.20</t>
-  </si>
-  <si>
-    <t>27784.10</t>
-  </si>
-  <si>
-    <t>25101.20</t>
-  </si>
-  <si>
-    <t>19674.30</t>
-  </si>
-  <si>
-    <t>21141.10</t>
-  </si>
-  <si>
-    <t>13484.00</t>
-  </si>
-  <si>
-    <t>15965.10</t>
-  </si>
-  <si>
-    <t>16776.15</t>
-  </si>
-  <si>
-    <t>22081.35</t>
-  </si>
-  <si>
-    <t>28422.85</t>
-  </si>
-  <si>
-    <t>25577.35</t>
-  </si>
-  <si>
-    <t>20035.95</t>
-  </si>
-  <si>
-    <t>13485.45</t>
-  </si>
-  <si>
-    <t>12146.95</t>
-  </si>
-  <si>
-    <t>12531.25</t>
-  </si>
-  <si>
-    <t>8464.30</t>
-  </si>
-  <si>
-    <t>17164.20</t>
-  </si>
-  <si>
-    <t>17791.90</t>
-  </si>
-  <si>
-    <t>20209.70</t>
-  </si>
-  <si>
-    <t>13959.50</t>
-  </si>
-  <si>
-    <t>12338.80</t>
-  </si>
-  <si>
-    <t>9505.40</t>
-  </si>
-  <si>
-    <t>18669.00</t>
-  </si>
-  <si>
-    <t>19850.60</t>
-  </si>
-  <si>
-    <t>14919.13</t>
-  </si>
-  <si>
-    <t>12641.12</t>
-  </si>
-  <si>
-    <t>10391.71</t>
-  </si>
-  <si>
-    <t>12735.04</t>
-  </si>
-  <si>
-    <t>12236.04</t>
-  </si>
-  <si>
-    <t>13035.34</t>
-  </si>
-  <si>
-    <t>15623.54</t>
-  </si>
-  <si>
-    <t>8417.20</t>
-  </si>
-  <si>
-    <t>7786.00</t>
-  </si>
-  <si>
-    <t>114995.94</t>
-  </si>
-  <si>
-    <t>115411.06</t>
-  </si>
-  <si>
-    <t>115774.37</t>
-  </si>
-  <si>
-    <t>115306.61</t>
-  </si>
-  <si>
-    <t>92774.23</t>
-  </si>
-  <si>
-    <t>85325.48</t>
-  </si>
-  <si>
-    <t>107101.09</t>
-  </si>
-  <si>
-    <t>142553.81</t>
-  </si>
-  <si>
-    <t>131049.81</t>
-  </si>
-  <si>
-    <t>134012.07</t>
-  </si>
-  <si>
-    <t>123362.55</t>
-  </si>
-  <si>
-    <t>119688.24</t>
-  </si>
-  <si>
-    <t>114575.30</t>
-  </si>
-  <si>
-    <t>119047.40</t>
-  </si>
-  <si>
-    <t>102257.21</t>
-  </si>
-  <si>
-    <t>110515.61</t>
-  </si>
-  <si>
-    <t>136838.72</t>
-  </si>
-  <si>
-    <t>124427.77</t>
-  </si>
-  <si>
-    <t>113021.70</t>
-  </si>
-  <si>
-    <t>144800.79</t>
-  </si>
-  <si>
-    <t>153429.83</t>
-  </si>
-  <si>
-    <t>167363.38</t>
-  </si>
-  <si>
-    <t>195025.24</t>
-  </si>
-  <si>
-    <t>202077.64</t>
-  </si>
-  <si>
-    <t>173316.60</t>
-  </si>
-  <si>
-    <t>177353.70</t>
-  </si>
-  <si>
-    <t>154178.60</t>
-  </si>
-  <si>
-    <t>160398.40</t>
-  </si>
-  <si>
-    <t>113745.10</t>
-  </si>
-  <si>
-    <t>141492.40</t>
-  </si>
-  <si>
-    <t>160912.20</t>
-  </si>
-  <si>
-    <t>145135.10</t>
-  </si>
-  <si>
-    <t>126531.10</t>
-  </si>
-  <si>
-    <t>80229.40</t>
-  </si>
-  <si>
-    <t>75416.10</t>
-  </si>
-  <si>
-    <t>70128.46</t>
-  </si>
-  <si>
-    <t>67678.96</t>
-  </si>
-  <si>
-    <t>69609.94</t>
-  </si>
-  <si>
-    <t>68715.28</t>
-  </si>
-  <si>
-    <t>90086.66</t>
-  </si>
-  <si>
-    <t>85987.36</t>
-  </si>
-  <si>
-    <t>93364.30</t>
-  </si>
-  <si>
-    <t>104511.40</t>
-  </si>
-  <si>
-    <t>108270.90</t>
-  </si>
-  <si>
-    <t>125390.40</t>
-  </si>
-  <si>
-    <t>120646.60</t>
-  </si>
-  <si>
-    <t>129314.40</t>
-  </si>
-  <si>
-    <t>101814.80</t>
-  </si>
-  <si>
-    <t>126379.80</t>
-  </si>
-  <si>
-    <t>148546.80</t>
-  </si>
-  <si>
-    <t>111392.01</t>
-  </si>
-  <si>
-    <t>35406.81</t>
-  </si>
-  <si>
-    <t>70696.50</t>
-  </si>
-  <si>
-    <t>86211.50</t>
-  </si>
-  <si>
-    <t>72193.99</t>
-  </si>
-  <si>
-    <t>89544.49</t>
-  </si>
-  <si>
-    <t>103207.80</t>
-  </si>
-  <si>
-    <t>71886.30</t>
-  </si>
-  <si>
-    <t>54383.10</t>
-  </si>
-  <si>
-    <t>110155.25</t>
-  </si>
-  <si>
-    <t>98412.35</t>
-  </si>
-  <si>
-    <t>142205.25</t>
-  </si>
-  <si>
-    <t>135644.00</t>
-  </si>
-  <si>
-    <t>128917.62</t>
-  </si>
-  <si>
-    <t>113984.33</t>
-  </si>
-  <si>
-    <t>97217.73</t>
-  </si>
-  <si>
-    <t>100389.75</t>
-  </si>
-  <si>
-    <t>131524.50</t>
-  </si>
-  <si>
-    <t>107101.60</t>
-  </si>
-  <si>
-    <t>115006.00</t>
-  </si>
-  <si>
-    <t>79170.02</t>
-  </si>
-  <si>
-    <t>101138.60</t>
-  </si>
-  <si>
-    <t>102436.91</t>
-  </si>
-  <si>
-    <t>27614.44</t>
-  </si>
-  <si>
-    <t>54586.61</t>
-  </si>
-  <si>
-    <t>31075.21</t>
-  </si>
-  <si>
-    <t>137473.70</t>
-  </si>
-  <si>
-    <t>121396.60</t>
-  </si>
-  <si>
-    <t>108523.75</t>
-  </si>
-  <si>
-    <t>126607.47</t>
-  </si>
-  <si>
-    <t>124912.50</t>
-  </si>
-  <si>
-    <t>113049.26</t>
-  </si>
-  <si>
-    <t>103963.76</t>
-  </si>
-  <si>
-    <t>57488.66</t>
-  </si>
-  <si>
-    <t>43634.00</t>
-  </si>
-  <si>
-    <t>25132.20</t>
-  </si>
-  <si>
-    <t>27833.00</t>
-  </si>
-  <si>
-    <t>48635.90</t>
-  </si>
-  <si>
-    <t>27890.70</t>
-  </si>
-  <si>
-    <t>45671.80</t>
-  </si>
-  <si>
-    <t>71158.90</t>
-  </si>
-  <si>
-    <t>54534.80</t>
-  </si>
-  <si>
-    <t>90430.70</t>
-  </si>
-  <si>
-    <t>79697.90</t>
-  </si>
-  <si>
-    <t>104095.00</t>
-  </si>
-  <si>
-    <t>101641.90</t>
-  </si>
-  <si>
-    <t>107923.85</t>
-  </si>
-  <si>
-    <t>24355.65</t>
-  </si>
-  <si>
-    <t>519.85</t>
-  </si>
-  <si>
-    <t>77617.65</t>
-  </si>
-  <si>
-    <t>73855.05</t>
-  </si>
-  <si>
-    <t>11217.55</t>
-  </si>
-  <si>
-    <t>8448.05</t>
-  </si>
-  <si>
-    <t>37200.75</t>
-  </si>
-  <si>
-    <t>119217.70</t>
-  </si>
-  <si>
-    <t>110902.80</t>
-  </si>
-  <si>
-    <t>79668.10</t>
-  </si>
-  <si>
-    <t>146003.30</t>
-  </si>
-  <si>
-    <t>96930.50</t>
-  </si>
-  <si>
-    <t>106552.20</t>
-  </si>
-  <si>
-    <t>84516.60</t>
-  </si>
-  <si>
-    <t>90394.00</t>
-  </si>
-  <si>
-    <t>108022.40</t>
-  </si>
-  <si>
-    <t>31907.87</t>
-  </si>
-  <si>
-    <t>74089.88</t>
-  </si>
-  <si>
-    <t>117139.29</t>
-  </si>
-  <si>
-    <t>102017.96</t>
-  </si>
-  <si>
-    <t>106785.96</t>
-  </si>
-  <si>
-    <t>74786.66</t>
-  </si>
-  <si>
-    <t>92727.46</t>
-  </si>
-  <si>
-    <t>120694.80</t>
-  </si>
-  <si>
-    <t>105095.00</t>
+    <t>18165.46</t>
+  </si>
+  <si>
+    <t>17652.59</t>
+  </si>
+  <si>
+    <t>31437.33</t>
+  </si>
+  <si>
+    <t>25318.14</t>
+  </si>
+  <si>
+    <t>28004.05</t>
+  </si>
+  <si>
+    <t>16311.32</t>
+  </si>
+  <si>
+    <t>11023.71</t>
+  </si>
+  <si>
+    <t>8314.94</t>
+  </si>
+  <si>
+    <t>42397.62</t>
+  </si>
+  <si>
+    <t>16484.65</t>
+  </si>
+  <si>
+    <t>21997.40</t>
+  </si>
+  <si>
+    <t>30374.68</t>
+  </si>
+  <si>
+    <t>28301.76</t>
+  </si>
+  <si>
+    <t>31319.51</t>
+  </si>
+  <si>
+    <t>33440.28</t>
+  </si>
+  <si>
+    <t>42764.65</t>
+  </si>
+  <si>
+    <t>43067.50</t>
+  </si>
+  <si>
+    <t>44133.67</t>
+  </si>
+  <si>
+    <t>76940.33</t>
+  </si>
+  <si>
+    <t>27406.42</t>
+  </si>
+  <si>
+    <t>15911.30</t>
+  </si>
+  <si>
+    <t>13074.89</t>
+  </si>
+  <si>
+    <t>12009.50</t>
+  </si>
+  <si>
+    <t>10906.51</t>
+  </si>
+  <si>
+    <t>7100.90</t>
+  </si>
+  <si>
+    <t>7980.18</t>
+  </si>
+  <si>
+    <t>7449.22</t>
+  </si>
+  <si>
+    <t>8261.19</t>
+  </si>
+  <si>
+    <t>11228.35</t>
+  </si>
+  <si>
+    <t>8781.40</t>
+  </si>
+  <si>
+    <t>3160.00</t>
+  </si>
+  <si>
+    <t>6440.41</t>
+  </si>
+  <si>
+    <t>15997.60</t>
+  </si>
+  <si>
+    <t>3176.42</t>
+  </si>
+  <si>
+    <t>2208.76</t>
+  </si>
+  <si>
+    <t>6089.50</t>
+  </si>
+  <si>
+    <t>13710.00</t>
+  </si>
+  <si>
+    <t>36477.80</t>
+  </si>
+  <si>
+    <t>10145.50</t>
+  </si>
+  <si>
+    <t>11840.37</t>
+  </si>
+  <si>
+    <t>4695.41</t>
+  </si>
+  <si>
+    <t>8367.72</t>
+  </si>
+  <si>
+    <t>8609.31</t>
+  </si>
+  <si>
+    <t>8377.91</t>
+  </si>
+  <si>
+    <t>7503.39</t>
+  </si>
+  <si>
+    <t>9833.81</t>
+  </si>
+  <si>
+    <t>11544.44</t>
+  </si>
+  <si>
+    <t>3673.83</t>
+  </si>
+  <si>
+    <t>3213.56</t>
+  </si>
+  <si>
+    <t>1962.40</t>
+  </si>
+  <si>
+    <t>1969.47</t>
+  </si>
+  <si>
+    <t>2578.45</t>
+  </si>
+  <si>
+    <t>8268.54</t>
+  </si>
+  <si>
+    <t>26863.73</t>
+  </si>
+  <si>
+    <t>40844.54</t>
+  </si>
+  <si>
+    <t>91373.02</t>
+  </si>
+  <si>
+    <t>91123.94</t>
+  </si>
+  <si>
+    <t>54254.81</t>
+  </si>
+  <si>
+    <t>41479.99</t>
+  </si>
+  <si>
+    <t>13139.78</t>
+  </si>
+  <si>
+    <t>5713.05</t>
+  </si>
+  <si>
+    <t>736.50</t>
+  </si>
+  <si>
+    <t>1252.75</t>
+  </si>
+  <si>
+    <t>1647.25</t>
+  </si>
+  <si>
+    <t>1444.50</t>
+  </si>
+  <si>
+    <t>1413.76</t>
+  </si>
+  <si>
+    <t>2127.52</t>
+  </si>
+  <si>
+    <t>4111.93</t>
+  </si>
+  <si>
+    <t>2958.26</t>
+  </si>
+  <si>
+    <t>39317.72</t>
+  </si>
+  <si>
+    <t>39051.38</t>
+  </si>
+  <si>
+    <t>4754.59</t>
+  </si>
+  <si>
+    <t>502.52</t>
+  </si>
+  <si>
+    <t>5055.36</t>
+  </si>
+  <si>
+    <t>10659.34</t>
+  </si>
+  <si>
+    <t>7574.71</t>
+  </si>
+  <si>
+    <t>8149.71</t>
+  </si>
+  <si>
+    <t>7940.53</t>
+  </si>
+  <si>
+    <t>8274.48</t>
+  </si>
+  <si>
+    <t>7657.97</t>
+  </si>
+  <si>
+    <t>4972.10</t>
+  </si>
+  <si>
+    <t>14170.37</t>
+  </si>
+  <si>
+    <t>454.13</t>
+  </si>
+  <si>
+    <t>675.41</t>
+  </si>
+  <si>
+    <t>1269.91</t>
+  </si>
+  <si>
+    <t>291.74</t>
+  </si>
+  <si>
+    <t>589.91</t>
+  </si>
+  <si>
+    <t>2797.71</t>
+  </si>
+  <si>
+    <t>5541.74</t>
+  </si>
+  <si>
+    <t>23017.89</t>
+  </si>
+  <si>
+    <t>30239.45</t>
+  </si>
+  <si>
+    <t>29662.75</t>
+  </si>
+  <si>
+    <t>29780.67</t>
+  </si>
+  <si>
+    <t>14402.27</t>
+  </si>
+  <si>
+    <t>15593.12</t>
+  </si>
+  <si>
+    <t>17746.39</t>
+  </si>
+  <si>
+    <t>33278.46</t>
+  </si>
+  <si>
+    <t>42244.62</t>
+  </si>
+  <si>
+    <t>36446.36</t>
+  </si>
+  <si>
+    <t>41432.00</t>
+  </si>
+  <si>
+    <t>32148.85</t>
+  </si>
+  <si>
+    <t>4141.37</t>
+  </si>
+  <si>
+    <t>5912.50</t>
+  </si>
+  <si>
+    <t>7024.36</t>
+  </si>
+  <si>
+    <t>6850.78</t>
+  </si>
+  <si>
+    <t>204.93</t>
+  </si>
+  <si>
+    <t>1603.92</t>
+  </si>
+  <si>
+    <t>1433.94</t>
+  </si>
+  <si>
+    <t>2014.68</t>
+  </si>
+  <si>
+    <t>4601.79</t>
+  </si>
+  <si>
+    <t>4182.84</t>
+  </si>
+  <si>
+    <t>1695.88</t>
+  </si>
+  <si>
+    <t>1439.08</t>
+  </si>
+  <si>
+    <t>1791.74</t>
+  </si>
+  <si>
+    <t>2100.55</t>
+  </si>
+  <si>
+    <t>2924.95</t>
+  </si>
+  <si>
+    <t>5499.60</t>
+  </si>
+  <si>
+    <t>5633.58</t>
+  </si>
+  <si>
+    <t>3365.97</t>
+  </si>
+  <si>
+    <t>4037.99</t>
+  </si>
+  <si>
+    <t>2085.01</t>
+  </si>
+  <si>
+    <t>2884.13</t>
+  </si>
+  <si>
+    <t>2862.39</t>
+  </si>
+  <si>
+    <t>7600.91</t>
+  </si>
+  <si>
+    <t>15043.90</t>
+  </si>
+  <si>
+    <t>22425.05</t>
+  </si>
+  <si>
+    <t>10248.71</t>
+  </si>
+  <si>
+    <t>8662.33</t>
+  </si>
+  <si>
+    <t>8514.60</t>
+  </si>
+  <si>
+    <t>9511.18</t>
+  </si>
+  <si>
+    <t>10371.40</t>
+  </si>
+  <si>
+    <t>5263.17</t>
+  </si>
+  <si>
+    <t>3047.52</t>
+  </si>
+  <si>
+    <t>4619.95</t>
+  </si>
+  <si>
+    <t>12605.98</t>
+  </si>
+  <si>
+    <t>13621.68</t>
+  </si>
+  <si>
+    <t>14427.28</t>
+  </si>
+  <si>
+    <t>14378.61</t>
+  </si>
+  <si>
+    <t>68482.48</t>
+  </si>
+  <si>
+    <t>65945.55</t>
+  </si>
+  <si>
+    <t>66194.86</t>
+  </si>
+  <si>
+    <t>54042.94</t>
+  </si>
+  <si>
+    <t>42024.31</t>
+  </si>
+  <si>
+    <t>2717.34</t>
+  </si>
+  <si>
+    <t>4326.88</t>
+  </si>
+  <si>
+    <t>13609.40</t>
+  </si>
+  <si>
+    <t>14418.99</t>
+  </si>
+  <si>
+    <t>6444.68</t>
+  </si>
+  <si>
+    <t>2806.75</t>
+  </si>
+  <si>
+    <t>9117.38</t>
+  </si>
+  <si>
+    <t>2946.83</t>
+  </si>
+  <si>
+    <t>11987.70</t>
+  </si>
+  <si>
+    <t>12786.24</t>
+  </si>
+  <si>
+    <t>12677.52</t>
+  </si>
+  <si>
+    <t>14307.34</t>
+  </si>
+  <si>
+    <t>16943.12</t>
+  </si>
+  <si>
+    <t>32760.73</t>
+  </si>
+  <si>
+    <t>4290.18</t>
+  </si>
+  <si>
+    <t>11043.58</t>
+  </si>
+  <si>
+    <t>32871.33</t>
+  </si>
+  <si>
+    <t>35714.46</t>
+  </si>
+  <si>
+    <t>5467.89</t>
+  </si>
+  <si>
+    <t>33650.92</t>
+  </si>
+  <si>
+    <t>34230.28</t>
+  </si>
+  <si>
+    <t>2217.14</t>
+  </si>
+  <si>
+    <t>1053.62</t>
+  </si>
+  <si>
+    <t>781.78</t>
+  </si>
+  <si>
+    <t>856.57</t>
+  </si>
+  <si>
+    <t>1137.32</t>
+  </si>
+  <si>
+    <t>2187.16</t>
+  </si>
+  <si>
+    <t>2925.92</t>
+  </si>
+  <si>
+    <t>4895.18</t>
+  </si>
+  <si>
+    <t>22776.42</t>
+  </si>
+  <si>
+    <t>37436.06</t>
+  </si>
+  <si>
+    <t>38100.28</t>
+  </si>
+  <si>
+    <t>20575.55</t>
+  </si>
+  <si>
+    <t>17136.24</t>
+  </si>
+  <si>
+    <t>17674.31</t>
+  </si>
+  <si>
+    <t>79730.55</t>
+  </si>
+  <si>
+    <t>79822.02</t>
+  </si>
+  <si>
+    <t>79887.39</t>
+  </si>
+  <si>
+    <t>54680.73</t>
+  </si>
+  <si>
+    <t>31157.16</t>
+  </si>
+  <si>
+    <t>16823.85</t>
+  </si>
+  <si>
+    <t>17441.28</t>
+  </si>
+  <si>
+    <t>15646.79</t>
+  </si>
+  <si>
+    <t>28076.15</t>
+  </si>
+  <si>
+    <t>74708.32</t>
+  </si>
+  <si>
+    <t>28830.28</t>
+  </si>
+  <si>
+    <t>28815.60</t>
+  </si>
+  <si>
+    <t>5700.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1351.19</t>
+  </si>
+  <si>
+    <t>481.65</t>
+  </si>
+  <si>
+    <t>886.06</t>
+  </si>
+  <si>
+    <t>19427.53</t>
+  </si>
+  <si>
+    <t>12342.54</t>
+  </si>
+  <si>
+    <t>14258.64</t>
+  </si>
+  <si>
+    <t>6216.52</t>
+  </si>
+  <si>
+    <t>729.44</t>
+  </si>
+  <si>
+    <t>3822.28</t>
+  </si>
+  <si>
+    <t>2782.63</t>
+  </si>
+  <si>
+    <t>5499.61</t>
+  </si>
+  <si>
+    <t>30361.59</t>
+  </si>
+  <si>
+    <t>6938.81</t>
+  </si>
+  <si>
+    <t>11696.35</t>
+  </si>
+  <si>
+    <t>18443.60</t>
+  </si>
+  <si>
+    <t>14506.83</t>
+  </si>
+  <si>
+    <t>8056.89</t>
+  </si>
+  <si>
+    <t>4533.71</t>
+  </si>
+  <si>
+    <t>12214.15</t>
+  </si>
+  <si>
+    <t>13491.08</t>
+  </si>
+  <si>
+    <t>18915.71</t>
+  </si>
+  <si>
+    <t>44301.86</t>
+  </si>
+  <si>
+    <t>11330.31</t>
+  </si>
+  <si>
+    <t>5316.16</t>
+  </si>
+  <si>
+    <t>2648.24</t>
+  </si>
+  <si>
+    <t>3457.92</t>
+  </si>
+  <si>
+    <t>4687.99</t>
+  </si>
+  <si>
+    <t>930.19</t>
+  </si>
+  <si>
+    <t>1397.22</t>
+  </si>
+  <si>
+    <t>2202.27</t>
+  </si>
+  <si>
+    <t>2019.30</t>
+  </si>
+  <si>
+    <t>2204.82</t>
+  </si>
+  <si>
+    <t>6019.61</t>
+  </si>
+  <si>
+    <t>11774.07</t>
+  </si>
+  <si>
+    <t>1153.18</t>
+  </si>
+  <si>
+    <t>8980.21</t>
+  </si>
+  <si>
+    <t>2592.91</t>
+  </si>
+  <si>
+    <t>6174.42</t>
+  </si>
+  <si>
+    <t>3650.15</t>
+  </si>
+  <si>
+    <t>1786.56</t>
+  </si>
+  <si>
+    <t>24768.10</t>
+  </si>
+  <si>
+    <t>2928.13</t>
+  </si>
+  <si>
+    <t>5676.66</t>
+  </si>
+  <si>
+    <t>55.90</t>
+  </si>
+  <si>
+    <t>5105.11</t>
+  </si>
+  <si>
+    <t>5318.48</t>
+  </si>
+  <si>
+    <t>8802.36</t>
+  </si>
+  <si>
+    <t>853.97</t>
+  </si>
+  <si>
+    <t>4768.83</t>
+  </si>
+  <si>
+    <t>5114.69</t>
+  </si>
+  <si>
+    <t>1633.57</t>
+  </si>
+  <si>
+    <t>5133.52</t>
+  </si>
+  <si>
+    <t>12897.66</t>
+  </si>
+  <si>
+    <t>16009.26</t>
+  </si>
+  <si>
+    <t>9518.41</t>
+  </si>
+  <si>
+    <t>3450.99</t>
+  </si>
+  <si>
+    <t>17467.65</t>
+  </si>
+  <si>
+    <t>31601.38</t>
+  </si>
+  <si>
+    <t>81668.62</t>
+  </si>
+  <si>
+    <t>68079.20</t>
+  </si>
+  <si>
+    <t>27324.95</t>
+  </si>
+  <si>
+    <t>35457.29</t>
+  </si>
+  <si>
+    <t>7049.86</t>
+  </si>
+  <si>
+    <t>3718.99</t>
+  </si>
+  <si>
+    <t>2777.55</t>
+  </si>
+  <si>
+    <t>3347.65</t>
+  </si>
+  <si>
+    <t>5016.13</t>
+  </si>
+  <si>
+    <t>49074.08</t>
+  </si>
+  <si>
+    <t>48045.57</t>
+  </si>
+  <si>
+    <t>44954.72</t>
+  </si>
+  <si>
+    <t>996.14</t>
+  </si>
+  <si>
+    <t>323.37</t>
+  </si>
+  <si>
+    <t>34606.02</t>
+  </si>
+  <si>
+    <t>29669.46</t>
+  </si>
+  <si>
+    <t>1273.25</t>
+  </si>
+  <si>
+    <t>2215.77</t>
+  </si>
+  <si>
+    <t>2301.54</t>
+  </si>
+  <si>
+    <t>8748.92</t>
+  </si>
+  <si>
+    <t>5466.83</t>
+  </si>
+  <si>
+    <t>5861.29</t>
+  </si>
+  <si>
+    <t>3165.48</t>
+  </si>
+  <si>
+    <t>2560.87</t>
+  </si>
+  <si>
+    <t>6315.10</t>
+  </si>
+  <si>
+    <t>3021.29</t>
+  </si>
+  <si>
+    <t>11865.45</t>
+  </si>
+  <si>
+    <t>1222.92</t>
+  </si>
+  <si>
+    <t>7815.97</t>
+  </si>
+  <si>
+    <t>20616.26</t>
+  </si>
+  <si>
+    <t>18328.32</t>
+  </si>
+  <si>
+    <t>13753.25</t>
+  </si>
+  <si>
+    <t>9457.37</t>
+  </si>
+  <si>
+    <t>1951.38</t>
+  </si>
+  <si>
+    <t>17083.42</t>
+  </si>
+  <si>
+    <t>19229.74</t>
+  </si>
+  <si>
+    <t>17023.05</t>
+  </si>
+  <si>
+    <t>16130.99</t>
+  </si>
+  <si>
+    <t>5478.22</t>
+  </si>
+  <si>
+    <t>5941.54</t>
+  </si>
+  <si>
+    <t>12354.70</t>
+  </si>
+  <si>
+    <t>32158.46</t>
+  </si>
+  <si>
+    <t>41393.53</t>
+  </si>
+  <si>
+    <t>34683.52</t>
+  </si>
+  <si>
+    <t>39570.30</t>
+  </si>
+  <si>
+    <t>30254.33</t>
+  </si>
+  <si>
+    <t>3403.57</t>
+  </si>
+  <si>
+    <t>5195.58</t>
+  </si>
+  <si>
+    <t>3552.10</t>
+  </si>
+  <si>
+    <t>5247.84</t>
+  </si>
+  <si>
+    <t>20469.97</t>
+  </si>
+  <si>
+    <t>12188.83</t>
+  </si>
+  <si>
+    <t>1806.01</t>
+  </si>
+  <si>
+    <t>926.85</t>
+  </si>
+  <si>
+    <t>430.21</t>
+  </si>
+  <si>
+    <t>3487.54</t>
+  </si>
+  <si>
+    <t>2775.58</t>
+  </si>
+  <si>
+    <t>244.74</t>
+  </si>
+  <si>
+    <t>248.03</t>
+  </si>
+  <si>
+    <t>1281.85</t>
+  </si>
+  <si>
+    <t>1591.25</t>
+  </si>
+  <si>
+    <t>510.20</t>
+  </si>
+  <si>
+    <t>2970.56</t>
+  </si>
+  <si>
+    <t>3801.69</t>
+  </si>
+  <si>
+    <t>2672.00</t>
+  </si>
+  <si>
+    <t>3115.57</t>
+  </si>
+  <si>
+    <t>1028.97</t>
+  </si>
+  <si>
+    <t>1053.53</t>
+  </si>
+  <si>
+    <t>821.34</t>
+  </si>
+  <si>
+    <t>6577.53</t>
+  </si>
+  <si>
+    <t>14020.46</t>
+  </si>
+  <si>
+    <t>21525.19</t>
+  </si>
+  <si>
+    <t>9066.74</t>
+  </si>
+  <si>
+    <t>10543.39</t>
+  </si>
+  <si>
+    <t>10547.46</t>
+  </si>
+  <si>
+    <t>8688.20</t>
+  </si>
+  <si>
+    <t>11232.44</t>
+  </si>
+  <si>
+    <t>5728.84</t>
+  </si>
+  <si>
+    <t>8972.27</t>
+  </si>
+  <si>
+    <t>640.46</t>
+  </si>
+  <si>
+    <t>5757.84</t>
+  </si>
+  <si>
+    <t>2346.24</t>
+  </si>
+  <si>
+    <t>3026.24</t>
+  </si>
+  <si>
+    <t>2446.39</t>
+  </si>
+  <si>
+    <t>61668.19</t>
+  </si>
+  <si>
+    <t>50657.67</t>
+  </si>
+  <si>
+    <t>35636.20</t>
+  </si>
+  <si>
+    <t>28200.32</t>
+  </si>
+  <si>
+    <t>32621.41</t>
+  </si>
+  <si>
+    <t>3422.15</t>
+  </si>
+  <si>
+    <t>2153.64</t>
+  </si>
+  <si>
+    <t>11695.98</t>
+  </si>
+  <si>
+    <t>12680.18</t>
+  </si>
+  <si>
+    <t>4729.16</t>
+  </si>
+  <si>
+    <t>1488.30</t>
+  </si>
+  <si>
+    <t>7065.12</t>
+  </si>
+  <si>
+    <t>1030.54</t>
+  </si>
+  <si>
+    <t>10260.71</t>
+  </si>
+  <si>
+    <t>12450.86</t>
+  </si>
+  <si>
+    <t>12342.14</t>
+  </si>
+  <si>
+    <t>13533.51</t>
+  </si>
+  <si>
+    <t>10396.02</t>
+  </si>
+  <si>
+    <t>26950.61</t>
+  </si>
+  <si>
+    <t>629.04</t>
+  </si>
+  <si>
+    <t>9363.26</t>
+  </si>
+  <si>
+    <t>28503.36</t>
+  </si>
+  <si>
+    <t>27960.38</t>
+  </si>
+  <si>
+    <t>2249.45</t>
+  </si>
+  <si>
+    <t>26393.33</t>
+  </si>
+  <si>
+    <t>28482.81</t>
+  </si>
+  <si>
+    <t>3003.81</t>
+  </si>
+  <si>
+    <t>3117.63</t>
+  </si>
+  <si>
+    <t>1774.58</t>
+  </si>
+  <si>
+    <t>46.16</t>
+  </si>
+  <si>
+    <t>4884.08</t>
+  </si>
+  <si>
+    <t>9379.63</t>
+  </si>
+  <si>
+    <t>10283.59</t>
+  </si>
+  <si>
+    <t>11262.74</t>
+  </si>
+  <si>
+    <t>3796.14</t>
+  </si>
+  <si>
+    <t>21896.07</t>
+  </si>
+  <si>
+    <t>35841.06</t>
+  </si>
+  <si>
+    <t>36411.41</t>
+  </si>
+  <si>
+    <t>16868.56</t>
+  </si>
+  <si>
+    <t>13521.73</t>
+  </si>
+  <si>
+    <t>14398.21</t>
+  </si>
+  <si>
+    <t>76763.22</t>
+  </si>
+  <si>
+    <t>76824.22</t>
+  </si>
+  <si>
+    <t>73714.89</t>
+  </si>
+  <si>
+    <t>48525.49</t>
+  </si>
+  <si>
+    <t>24901.99</t>
+  </si>
+  <si>
+    <t>15352.49</t>
+  </si>
+  <si>
+    <t>16024.53</t>
+  </si>
+  <si>
+    <t>14310.40</t>
+  </si>
+  <si>
+    <t>27409.37</t>
+  </si>
+  <si>
+    <t>74243.49</t>
+  </si>
+  <si>
+    <t>2359.88</t>
+  </si>
+  <si>
+    <t>2426.97</t>
+  </si>
+  <si>
+    <t>28109.72</t>
+  </si>
+  <si>
+    <t>28415.54</t>
+  </si>
+  <si>
+    <t>4935.60</t>
+  </si>
+  <si>
+    <t>14255.58</t>
+  </si>
+  <si>
+    <t>22930.83</t>
+  </si>
+  <si>
+    <t>19951.94</t>
+  </si>
+  <si>
+    <t>1247.97</t>
+  </si>
+  <si>
+    <t>3713.83</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,2808 +1612,4602 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2">
-        <v>44903</v>
+        <v>44908</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>141169</v>
+        <v>37592.99</v>
       </c>
       <c r="G2" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>44904</v>
+        <v>44909</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3">
-        <v>141169</v>
+        <v>29995.13</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>44905</v>
+        <v>44910</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>141169</v>
+        <v>17178.69</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>44906</v>
+        <v>44911</v>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>130660</v>
+        <v>19101.62</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
-        <v>44907</v>
+        <v>44912</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>104626</v>
+        <v>27274.61</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
-        <v>44908</v>
+        <v>44913</v>
       </c>
       <c r="B7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>98031</v>
+        <v>12489.04</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
-        <v>44909</v>
+        <v>44914</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8">
-        <v>119093</v>
+        <v>13806.34</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2">
-        <v>44910</v>
+        <v>44915</v>
       </c>
       <c r="B9">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>156129</v>
+        <v>13814.55</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <v>44911</v>
+        <v>44916</v>
       </c>
       <c r="B10">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10">
-        <v>151323</v>
+        <v>12036.03</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>44912</v>
+        <v>44917</v>
       </c>
       <c r="B11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11">
-        <v>157208</v>
+        <v>9545.84</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>44913</v>
+        <v>44918</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12">
-        <v>142701</v>
+        <v>10301.05</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2">
-        <v>44914</v>
+        <v>44919</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>138142</v>
+        <v>11931.08</v>
       </c>
       <c r="G13" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2">
-        <v>44915</v>
+        <v>44920</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14">
-        <v>133282</v>
+        <v>13794.93</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>44916</v>
+        <v>44921</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C15">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15">
-        <v>134791</v>
+        <v>23262.62</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2">
-        <v>44917</v>
+        <v>44922</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
       <c r="F16">
-        <v>122871</v>
+        <v>28906.57</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2">
-        <v>44918</v>
+        <v>44923</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="C17">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17">
-        <v>130300</v>
+        <v>30550.5</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2">
-        <v>44919</v>
+        <v>44924</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C18">
-        <v>73</v>
+        <v>183</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18">
-        <v>157610</v>
+        <v>29576.42</v>
       </c>
       <c r="G18" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2">
-        <v>44920</v>
+        <v>44925</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C19">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19">
-        <v>152186</v>
+        <v>25217.96</v>
       </c>
       <c r="G19" t="s">
-        <v>146</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2">
-        <v>44921</v>
+        <v>44926</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20">
-        <v>153921</v>
+        <v>32638.47</v>
       </c>
       <c r="G20" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2">
-        <v>44922</v>
+        <v>44927</v>
       </c>
       <c r="B21">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
       </c>
       <c r="F21">
-        <v>194864</v>
+        <v>16076.11</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2">
-        <v>44923</v>
+        <v>44928</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
       </c>
       <c r="F22">
-        <v>200834</v>
+        <v>10595.14</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2">
-        <v>44924</v>
+        <v>44929</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C23">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23">
-        <v>206297</v>
+        <v>10426.65</v>
       </c>
       <c r="G23" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2">
-        <v>44925</v>
+        <v>44930</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C24">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
       </c>
       <c r="F24">
-        <v>239198</v>
+        <v>8551.58</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2">
-        <v>44926</v>
+        <v>44931</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25">
-        <v>245298</v>
+        <v>6218.52</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2">
-        <v>44927</v>
+        <v>44932</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
       </c>
       <c r="F26">
-        <v>204701</v>
+        <v>6170.71</v>
       </c>
       <c r="G26" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2">
-        <v>44928</v>
+        <v>44933</v>
       </c>
       <c r="B27">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27">
-        <v>200791</v>
+        <v>6582.96</v>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2">
-        <v>44929</v>
+        <v>44934</v>
       </c>
       <c r="B28">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
       <c r="F28">
-        <v>182297</v>
+        <v>5246.95</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2">
-        <v>44930</v>
+        <v>44935</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
       </c>
       <c r="F29">
-        <v>189696</v>
+        <v>6241.89</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2">
-        <v>44931</v>
+        <v>44936</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
       <c r="F30">
-        <v>138787</v>
+        <v>13433.17</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2">
-        <v>44932</v>
+        <v>44937</v>
       </c>
       <c r="B31">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31">
-        <v>171238</v>
+        <v>14801.01</v>
       </c>
       <c r="G31" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2">
-        <v>44933</v>
+        <v>44938</v>
       </c>
       <c r="B32">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32">
-        <v>188266</v>
+        <v>14934.07</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2">
-        <v>44934</v>
+        <v>44939</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
       <c r="F33">
-        <v>175952</v>
+        <v>7593.59</v>
       </c>
       <c r="G33" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2">
-        <v>44935</v>
+        <v>44940</v>
       </c>
       <c r="B34">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
       </c>
       <c r="F34">
-        <v>150927</v>
+        <v>7017.39</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2">
-        <v>44936</v>
+        <v>44941</v>
       </c>
       <c r="B35">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35">
-        <v>101219</v>
+        <v>5769.33</v>
       </c>
       <c r="G35" t="s">
-        <v>162</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="B36">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="F36">
-        <v>94330</v>
+        <v>8383.18</v>
       </c>
       <c r="G36" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2">
-        <v>44938</v>
+        <v>44943</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
         <v>42</v>
       </c>
       <c r="F37">
-        <v>100538</v>
+        <v>9739.65</v>
       </c>
       <c r="G37" t="s">
-        <v>164</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2">
-        <v>44939</v>
+        <v>44944</v>
       </c>
       <c r="B38">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E38" t="s">
         <v>43</v>
       </c>
       <c r="F38">
-        <v>107795</v>
+        <v>15496.56</v>
       </c>
       <c r="G38" t="s">
-        <v>165</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2">
-        <v>44940</v>
+        <v>44945</v>
       </c>
       <c r="B39">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C39">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
       </c>
       <c r="F39">
-        <v>112008</v>
+        <v>11709.7</v>
       </c>
       <c r="G39" t="s">
-        <v>166</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2">
-        <v>44941</v>
+        <v>44946</v>
       </c>
       <c r="B40">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C40">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>45</v>
       </c>
       <c r="F40">
-        <v>98996</v>
+        <v>7217.37</v>
       </c>
       <c r="G40" t="s">
-        <v>167</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2">
-        <v>44942</v>
+        <v>44947</v>
       </c>
       <c r="B41">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C41">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
       <c r="F41">
-        <v>103881</v>
+        <v>6163.71</v>
       </c>
       <c r="G41" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2">
-        <v>44943</v>
+        <v>44948</v>
       </c>
       <c r="B42">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
         <v>47</v>
       </c>
       <c r="F42">
-        <v>96765</v>
+        <v>4751.31</v>
       </c>
       <c r="G42" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2">
-        <v>44944</v>
+        <v>44949</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
         <v>48</v>
       </c>
       <c r="F43">
-        <v>106464</v>
+        <v>13472.83</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B44">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D44">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
         <v>49</v>
       </c>
       <c r="F44">
-        <v>122252</v>
+        <v>13927.79</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2">
-        <v>44946</v>
+        <v>44951</v>
       </c>
       <c r="B45">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
         <v>50</v>
       </c>
       <c r="F45">
-        <v>138693</v>
+        <v>17180.27</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2">
-        <v>44947</v>
+        <v>44952</v>
       </c>
       <c r="B46">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
         <v>51</v>
       </c>
       <c r="F46">
-        <v>155334</v>
+        <v>6649.42</v>
       </c>
       <c r="G46" t="s">
-        <v>173</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2">
-        <v>44948</v>
+        <v>44953</v>
       </c>
       <c r="B47">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
         <v>52</v>
       </c>
       <c r="F47">
-        <v>142129</v>
+        <v>5064.98</v>
       </c>
       <c r="G47" t="s">
-        <v>174</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2">
-        <v>44949</v>
+        <v>44954</v>
       </c>
       <c r="B48">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
         <v>53</v>
       </c>
       <c r="F48">
-        <v>151447</v>
+        <v>6429.75</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="2">
-        <v>44950</v>
+        <v>44955</v>
       </c>
       <c r="B49">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="C49">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
         <v>54</v>
       </c>
       <c r="F49">
-        <v>124206</v>
+        <v>5307.4</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="2">
-        <v>44951</v>
+        <v>44956</v>
       </c>
       <c r="B50">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
         <v>55</v>
       </c>
       <c r="F50">
-        <v>145991</v>
+        <v>8347.08</v>
       </c>
       <c r="G50" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2">
-        <v>44952</v>
+        <v>44957</v>
       </c>
       <c r="B51">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
       </c>
       <c r="F51">
-        <v>174299</v>
+        <v>14860.06</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="2">
-        <v>44953</v>
+        <v>44958</v>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
         <v>57</v>
       </c>
       <c r="F52">
-        <v>142393</v>
+        <v>17978.73</v>
       </c>
       <c r="G52" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="2">
-        <v>44954</v>
+        <v>44959</v>
       </c>
       <c r="B53">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s">
         <v>58</v>
       </c>
       <c r="F53">
-        <v>66006</v>
+        <v>12096.86</v>
       </c>
       <c r="G53" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="2">
-        <v>44955</v>
+        <v>44960</v>
       </c>
       <c r="B54">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C54">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
       </c>
       <c r="F54">
-        <v>86425</v>
+        <v>11719.53</v>
       </c>
       <c r="G54" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="2">
-        <v>44956</v>
+        <v>44961</v>
       </c>
       <c r="B55">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C55">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>60</v>
       </c>
       <c r="F55">
-        <v>98467</v>
+        <v>9396.08</v>
       </c>
       <c r="G55" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="2">
-        <v>44957</v>
+        <v>44962</v>
       </c>
       <c r="B56">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C56">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D56">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E56" t="s">
         <v>61</v>
       </c>
       <c r="F56">
-        <v>80668</v>
+        <v>9243.16</v>
       </c>
       <c r="G56" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="2">
-        <v>44958</v>
+        <v>44963</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>294</v>
       </c>
       <c r="C57">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>225</v>
       </c>
       <c r="E57" t="s">
         <v>62</v>
       </c>
       <c r="F57">
-        <v>103812</v>
+        <v>9704.4</v>
       </c>
       <c r="G57" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="2">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B58">
-        <v>62</v>
+        <v>293</v>
       </c>
       <c r="C58">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
       </c>
       <c r="F58">
-        <v>132238</v>
+        <v>23044.74</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="2">
-        <v>44960</v>
+        <v>44965</v>
       </c>
       <c r="B59">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="C59">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="D59">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>64</v>
       </c>
       <c r="F59">
-        <v>108429</v>
+        <v>26929.86</v>
       </c>
       <c r="G59" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="2">
-        <v>44961</v>
+        <v>44966</v>
       </c>
       <c r="B60">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C60">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D60">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
         <v>65</v>
       </c>
       <c r="F60">
-        <v>87868</v>
+        <v>6022.7</v>
       </c>
       <c r="G60" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
-        <v>44962</v>
+        <v>44967</v>
       </c>
       <c r="B61">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
         <v>66</v>
       </c>
       <c r="F61">
-        <v>125241</v>
+        <v>6089.92</v>
       </c>
       <c r="G61" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="2">
-        <v>44963</v>
+        <v>44968</v>
       </c>
       <c r="B62">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E62" t="s">
         <v>67</v>
       </c>
       <c r="F62">
-        <v>109577</v>
+        <v>9432.040000000001</v>
       </c>
       <c r="G62" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="2">
-        <v>44964</v>
+        <v>44969</v>
       </c>
       <c r="B63">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E63" t="s">
         <v>68</v>
       </c>
       <c r="F63">
-        <v>150333</v>
+        <v>3514.05</v>
       </c>
       <c r="G63" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="2">
-        <v>44965</v>
+        <v>44970</v>
       </c>
       <c r="B64">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E64" t="s">
         <v>69</v>
       </c>
       <c r="F64">
-        <v>141812</v>
+        <v>4600.4</v>
       </c>
       <c r="G64" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2">
-        <v>44966</v>
+        <v>44971</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D65">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E65" t="s">
         <v>70</v>
       </c>
       <c r="F65">
-        <v>149561</v>
+        <v>6663.38</v>
       </c>
       <c r="G65" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2">
-        <v>44967</v>
+        <v>44972</v>
       </c>
       <c r="B66">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C66">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="E66" t="s">
         <v>71</v>
       </c>
       <c r="F66">
-        <v>169309</v>
+        <v>50518.58</v>
       </c>
       <c r="G66" t="s">
-        <v>193</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2">
-        <v>44968</v>
+        <v>44973</v>
       </c>
       <c r="B67">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>230</v>
       </c>
       <c r="E67" t="s">
         <v>72</v>
       </c>
       <c r="F67">
-        <v>166418</v>
+        <v>49459.33</v>
       </c>
       <c r="G67" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2">
-        <v>44969</v>
+        <v>44974</v>
       </c>
       <c r="B68">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="E68" t="s">
         <v>73</v>
       </c>
       <c r="F68">
-        <v>162553</v>
+        <v>47082.24</v>
       </c>
       <c r="G68" t="s">
-        <v>195</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2">
-        <v>44970</v>
+        <v>44975</v>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
         <v>74</v>
       </c>
       <c r="F69">
-        <v>137624</v>
+        <v>3115.79</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2">
-        <v>44971</v>
+        <v>44976</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C70">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D70">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>75</v>
       </c>
       <c r="F70">
-        <v>110306</v>
+        <v>3281.63</v>
       </c>
       <c r="G70" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2">
-        <v>44972</v>
+        <v>44977</v>
       </c>
       <c r="B71">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C71">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E71" t="s">
         <v>76</v>
       </c>
       <c r="F71">
-        <v>121209</v>
+        <v>4711.7</v>
       </c>
       <c r="G71" t="s">
-        <v>198</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2">
-        <v>44973</v>
+        <v>44978</v>
       </c>
       <c r="B72">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C72">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
         <v>77</v>
       </c>
       <c r="F72">
-        <v>111164</v>
+        <v>9381.92</v>
       </c>
       <c r="G72" t="s">
-        <v>199</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2">
-        <v>44974</v>
+        <v>44979</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D73">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E73" t="s">
         <v>78</v>
       </c>
       <c r="F73">
-        <v>144949</v>
+        <v>6027.84</v>
       </c>
       <c r="G73" t="s">
-        <v>200</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2">
-        <v>44975</v>
+        <v>44980</v>
       </c>
       <c r="B74">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C74">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
         <v>79</v>
       </c>
       <c r="F74">
-        <v>159253</v>
+        <v>2718.29</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2">
-        <v>44976</v>
+        <v>44981</v>
       </c>
       <c r="B75">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D75">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
         <v>80</v>
       </c>
       <c r="F75">
-        <v>71499</v>
+        <v>2753.82</v>
       </c>
       <c r="G75" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2">
-        <v>44977</v>
+        <v>44982</v>
       </c>
       <c r="B76">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="C76">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D76">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
         <v>81</v>
       </c>
       <c r="F76">
-        <v>89239</v>
+        <v>1910.42</v>
       </c>
       <c r="G76" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2">
-        <v>44978</v>
+        <v>44983</v>
       </c>
       <c r="B77">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D77">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="E77" t="s">
         <v>82</v>
       </c>
       <c r="F77">
-        <v>60678</v>
+        <v>2107.88</v>
       </c>
       <c r="G77" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2">
-        <v>44979</v>
+        <v>44984</v>
       </c>
       <c r="B78">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
         <v>83</v>
       </c>
       <c r="F78">
-        <v>166198</v>
+        <v>2288.42</v>
       </c>
       <c r="G78" t="s">
-        <v>205</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B79">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C79">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D79">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
         <v>84</v>
       </c>
       <c r="F79">
-        <v>165539</v>
+        <v>4775.05</v>
       </c>
       <c r="G79" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D80">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>85</v>
       </c>
       <c r="F80">
-        <v>145648</v>
+        <v>5713.61</v>
       </c>
       <c r="G80" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2">
-        <v>44982</v>
+        <v>44987</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="C81">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
         <v>86</v>
       </c>
       <c r="F81">
-        <v>163385</v>
+        <v>1342.87</v>
       </c>
       <c r="G81" t="s">
-        <v>208</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2">
-        <v>44983</v>
+        <v>44988</v>
       </c>
       <c r="B82">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="D82">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
         <v>87</v>
       </c>
       <c r="F82">
-        <v>144955</v>
+        <v>1950.81</v>
       </c>
       <c r="G82" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2">
-        <v>44984</v>
+        <v>44989</v>
       </c>
       <c r="B83">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E83" t="s">
         <v>88</v>
       </c>
       <c r="F83">
-        <v>132310</v>
+        <v>2304.92</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2">
-        <v>44985</v>
+        <v>44990</v>
       </c>
       <c r="B84">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
         <v>89</v>
       </c>
       <c r="F84">
-        <v>123183</v>
+        <v>1677.05</v>
       </c>
       <c r="G84" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2">
-        <v>44986</v>
+        <v>44991</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D85">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E85" t="s">
         <v>90</v>
       </c>
       <c r="F85">
-        <v>76026</v>
+        <v>8491.379999999999</v>
       </c>
       <c r="G85" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
-        <v>44987</v>
+        <v>44992</v>
       </c>
       <c r="B86">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C86">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="D86">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
         <v>91</v>
       </c>
       <c r="F86">
-        <v>68241</v>
+        <v>21886.17</v>
       </c>
       <c r="G86" t="s">
-        <v>213</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2">
-        <v>44988</v>
+        <v>44993</v>
       </c>
       <c r="B87">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D87">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
         <v>92</v>
       </c>
       <c r="F87">
-        <v>56147</v>
+        <v>18620.06</v>
       </c>
       <c r="G87" t="s">
-        <v>214</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2">
-        <v>44989</v>
+        <v>44994</v>
       </c>
       <c r="B88">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="E88" t="s">
         <v>93</v>
       </c>
       <c r="F88">
-        <v>55469</v>
+        <v>14343.16</v>
       </c>
       <c r="G88" t="s">
-        <v>215</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2">
-        <v>44990</v>
+        <v>44995</v>
       </c>
       <c r="B89">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E89" t="s">
         <v>94</v>
       </c>
       <c r="F89">
-        <v>81930</v>
+        <v>12255.08</v>
       </c>
       <c r="G89" t="s">
-        <v>216</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2">
-        <v>44991</v>
+        <v>44996</v>
       </c>
       <c r="B90">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C90">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
         <v>95</v>
       </c>
       <c r="F90">
-        <v>60644</v>
+        <v>3590.36</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2">
-        <v>44992</v>
+        <v>44997</v>
       </c>
       <c r="B91">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C91">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D91">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
         <v>96</v>
       </c>
       <c r="F91">
-        <v>76182</v>
+        <v>5934.47</v>
       </c>
       <c r="G91" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="B92">
+        <v>132</v>
+      </c>
+      <c r="C92">
+        <v>71</v>
+      </c>
+      <c r="D92">
         <v>61</v>
-      </c>
-      <c r="C92">
-        <v>45</v>
-      </c>
-      <c r="D92">
-        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>97</v>
       </c>
       <c r="F92">
-        <v>98943</v>
+        <v>11009.71</v>
       </c>
       <c r="G92" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2">
-        <v>44994</v>
+        <v>44999</v>
       </c>
       <c r="B93">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C93">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D93">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
         <v>98</v>
       </c>
       <c r="F93">
-        <v>79636</v>
+        <v>12639.7</v>
       </c>
       <c r="G93" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2">
-        <v>44995</v>
+        <v>45000</v>
       </c>
       <c r="B94">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C94">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D94">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
         <v>99</v>
       </c>
       <c r="F94">
-        <v>110105</v>
+        <v>13649.68</v>
       </c>
       <c r="G94" t="s">
-        <v>221</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
-        <v>44996</v>
+        <v>45001</v>
       </c>
       <c r="B95">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C95">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E95" t="s">
         <v>100</v>
       </c>
       <c r="F95">
-        <v>100839</v>
+        <v>8924.049999999999</v>
       </c>
       <c r="G95" t="s">
-        <v>222</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2">
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="B96">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D96">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
         <v>101</v>
       </c>
       <c r="F96">
-        <v>117579</v>
+        <v>9651.58</v>
       </c>
       <c r="G96" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2">
-        <v>44998</v>
+        <v>45003</v>
       </c>
       <c r="B97">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C97">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="E97" t="s">
         <v>102</v>
       </c>
       <c r="F97">
-        <v>117607</v>
+        <v>5391.69</v>
       </c>
       <c r="G97" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
-        <v>44999</v>
+        <v>45004</v>
       </c>
       <c r="B98">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="C98">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
         <v>103</v>
       </c>
       <c r="F98">
-        <v>124700</v>
+        <v>1120</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2">
-        <v>45000</v>
+        <v>45005</v>
       </c>
       <c r="B99">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="C99">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="E99" t="s">
         <v>104</v>
       </c>
       <c r="F99">
-        <v>46437</v>
+        <v>851.09</v>
       </c>
       <c r="G99" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2">
-        <v>45001</v>
+        <v>45006</v>
       </c>
       <c r="B100">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D100">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="E100" t="s">
         <v>105</v>
       </c>
       <c r="F100">
-        <v>27903</v>
+        <v>1762.84</v>
       </c>
       <c r="G100" t="s">
-        <v>227</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="B101">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="C101">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>
       </c>
       <c r="F101">
-        <v>103195</v>
+        <v>1861.7</v>
       </c>
       <c r="G101" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="2">
-        <v>45003</v>
+        <v>45008</v>
       </c>
       <c r="B102">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C102">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
         <v>107</v>
       </c>
       <c r="F102">
-        <v>93891</v>
+        <v>1894.52</v>
       </c>
       <c r="G102" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="2">
-        <v>45004</v>
+        <v>45009</v>
       </c>
       <c r="B103">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
         <v>12</v>
-      </c>
-      <c r="D103">
-        <v>26</v>
       </c>
       <c r="E103" t="s">
         <v>108</v>
       </c>
       <c r="F103">
-        <v>24703</v>
+        <v>737.8</v>
       </c>
       <c r="G103" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="2">
-        <v>45005</v>
+        <v>45010</v>
       </c>
       <c r="B104">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E104" t="s">
         <v>109</v>
       </c>
       <c r="F104">
-        <v>20595</v>
+        <v>716.92</v>
       </c>
       <c r="G104" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="2">
-        <v>45006</v>
+        <v>45011</v>
       </c>
       <c r="B105">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>110</v>
       </c>
       <c r="F105">
-        <v>49732</v>
+        <v>3472.26</v>
       </c>
       <c r="G105" t="s">
-        <v>232</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="2">
-        <v>45007</v>
+        <v>45012</v>
       </c>
       <c r="B106">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C106">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D106">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E106" t="s">
         <v>111</v>
       </c>
       <c r="F106">
-        <v>127682</v>
+        <v>12098.62</v>
       </c>
       <c r="G106" t="s">
-        <v>233</v>
+        <v>306</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="2">
-        <v>45008</v>
+        <v>45013</v>
       </c>
       <c r="B107">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="D107">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="E107" t="s">
         <v>112</v>
       </c>
       <c r="F107">
-        <v>128067</v>
+        <v>20674.9</v>
       </c>
       <c r="G107" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="2">
-        <v>45009</v>
+        <v>45014</v>
       </c>
       <c r="B108">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F108">
-        <v>97460</v>
+        <v>12393.76</v>
       </c>
       <c r="G108" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
-        <v>45010</v>
+        <v>45015</v>
       </c>
       <c r="B109">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D109">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F109">
-        <v>166213</v>
+        <v>3409.93</v>
       </c>
       <c r="G109" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="2">
-        <v>45011</v>
+        <v>45016</v>
       </c>
       <c r="B110">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C110">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D110">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F110">
-        <v>110890</v>
+        <v>2360.79</v>
       </c>
       <c r="G110" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="2">
-        <v>45012</v>
+        <v>45017</v>
       </c>
       <c r="B111">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C111">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D111">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F111">
-        <v>118891</v>
+        <v>1584.47</v>
       </c>
       <c r="G111" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="2">
-        <v>45013</v>
+        <v>45018</v>
       </c>
       <c r="B112">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C112">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D112">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F112">
-        <v>94022</v>
+        <v>1114.25</v>
       </c>
       <c r="G112" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="2">
-        <v>45014</v>
+        <v>45019</v>
       </c>
       <c r="B113">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C113">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F113">
-        <v>109063</v>
+        <v>1407.26</v>
       </c>
       <c r="G113" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="2">
-        <v>45015</v>
+        <v>45020</v>
       </c>
       <c r="B114">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D114">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F114">
-        <v>127873</v>
+        <v>1451.14</v>
       </c>
       <c r="G114" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="2">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B115">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D115">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F115">
-        <v>46827</v>
+        <v>1191.05</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="2">
-        <v>45017</v>
+        <v>45022</v>
       </c>
       <c r="B116">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C116">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F116">
-        <v>86731</v>
+        <v>3073.59</v>
       </c>
       <c r="G116" t="s">
-        <v>243</v>
+        <v>316</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
-        <v>45018</v>
+        <v>45023</v>
       </c>
       <c r="B117">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D117">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F117">
-        <v>127531</v>
+        <v>3691.8</v>
       </c>
       <c r="G117" t="s">
-        <v>244</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="2">
-        <v>45019</v>
+        <v>45024</v>
       </c>
       <c r="B118">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C118">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="D118">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F118">
-        <v>114753</v>
+        <v>3435.15</v>
       </c>
       <c r="G118" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="2">
-        <v>45020</v>
+        <v>45025</v>
       </c>
       <c r="B119">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C119">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F119">
-        <v>119022</v>
+        <v>2529.04</v>
       </c>
       <c r="G119" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="2">
-        <v>45021</v>
+        <v>45026</v>
       </c>
       <c r="B120">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C120">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F120">
-        <v>87822</v>
+        <v>1831.89</v>
       </c>
       <c r="G120" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
-        <v>45022</v>
+        <v>45027</v>
       </c>
       <c r="B121">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F121">
-        <v>108351</v>
+        <v>693.97</v>
       </c>
       <c r="G121" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="2">
-        <v>45023</v>
+        <v>45028</v>
       </c>
       <c r="B122">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C122">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D122">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F122">
-        <v>129112</v>
+        <v>922.42</v>
       </c>
       <c r="G122" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="2">
-        <v>45024</v>
+        <v>45029</v>
       </c>
       <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>8</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>127</v>
+      </c>
+      <c r="F123">
+        <v>1056.04</v>
+      </c>
+      <c r="G123" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B124">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>128</v>
+      </c>
+      <c r="F124">
+        <v>1830.6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>129</v>
+      </c>
+      <c r="F125">
+        <v>2041.05</v>
+      </c>
+      <c r="G125" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B126">
+        <v>28</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
+      </c>
+      <c r="E126" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126">
+        <v>1023.38</v>
+      </c>
+      <c r="G126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B127">
+        <v>53</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>45</v>
+      </c>
+      <c r="E127" t="s">
+        <v>131</v>
+      </c>
+      <c r="F127">
+        <v>1023.44</v>
+      </c>
+      <c r="G127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B128">
+        <v>79</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>72</v>
+      </c>
+      <c r="E128" t="s">
+        <v>132</v>
+      </c>
+      <c r="F128">
+        <v>899.86</v>
+      </c>
+      <c r="G128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B129">
+        <v>36</v>
+      </c>
+      <c r="C129">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>27</v>
+      </c>
+      <c r="E129" t="s">
+        <v>133</v>
+      </c>
+      <c r="F129">
+        <v>1181.97</v>
+      </c>
+      <c r="G129" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B130">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>172</v>
+      </c>
+      <c r="D130">
+        <v>142</v>
+      </c>
+      <c r="E130" t="s">
+        <v>134</v>
+      </c>
+      <c r="F130">
+        <v>19205.72</v>
+      </c>
+      <c r="G130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B131">
+        <v>29</v>
+      </c>
+      <c r="C131">
+        <v>171</v>
+      </c>
+      <c r="D131">
+        <v>142</v>
+      </c>
+      <c r="E131" t="s">
+        <v>135</v>
+      </c>
+      <c r="F131">
+        <v>19062.06</v>
+      </c>
+      <c r="G131" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B132">
+        <v>31</v>
+      </c>
+      <c r="C132">
+        <v>147</v>
+      </c>
+      <c r="D132">
+        <v>116</v>
+      </c>
+      <c r="E132" t="s">
+        <v>136</v>
+      </c>
+      <c r="F132">
+        <v>18199.38</v>
+      </c>
+      <c r="G132" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B133">
+        <v>37</v>
+      </c>
+      <c r="C133">
+        <v>145</v>
+      </c>
+      <c r="D133">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>137</v>
+      </c>
+      <c r="F133">
+        <v>21603.84</v>
+      </c>
+      <c r="G133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B134">
         <v>18</v>
       </c>
-      <c r="C123">
+      <c r="C134">
+        <v>64</v>
+      </c>
+      <c r="D134">
+        <v>46</v>
+      </c>
+      <c r="E134" t="s">
+        <v>138</v>
+      </c>
+      <c r="F134">
+        <v>10992.01</v>
+      </c>
+      <c r="G134" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>67</v>
+      </c>
+      <c r="D135">
         <v>57</v>
       </c>
-      <c r="D123">
+      <c r="E135" t="s">
+        <v>139</v>
+      </c>
+      <c r="F135">
+        <v>12019.79</v>
+      </c>
+      <c r="G135" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>27</v>
+      </c>
+      <c r="D136">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>140</v>
+      </c>
+      <c r="F136">
+        <v>5260.41</v>
+      </c>
+      <c r="G136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B137">
+        <v>40</v>
+      </c>
+      <c r="C137">
+        <v>41</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>141</v>
+      </c>
+      <c r="F137">
+        <v>6848.14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B138">
+        <v>43</v>
+      </c>
+      <c r="C138">
+        <v>133</v>
+      </c>
+      <c r="D138">
+        <v>90</v>
+      </c>
+      <c r="E138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F138">
+        <v>15967.92</v>
+      </c>
+      <c r="G138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B139">
+        <v>45</v>
+      </c>
+      <c r="C139">
+        <v>99</v>
+      </c>
+      <c r="D139">
+        <v>54</v>
+      </c>
+      <c r="E139" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139">
+        <v>11401.04</v>
+      </c>
+      <c r="G139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B140">
+        <v>50</v>
+      </c>
+      <c r="C140">
+        <v>93</v>
+      </c>
+      <c r="D140">
+        <v>43</v>
+      </c>
+      <c r="E140" t="s">
+        <v>144</v>
+      </c>
+      <c r="F140">
+        <v>11932.22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B141">
+        <v>215</v>
+      </c>
+      <c r="C141">
+        <v>43</v>
+      </c>
+      <c r="D141">
+        <v>172</v>
+      </c>
+      <c r="E141" t="s">
+        <v>145</v>
+      </c>
+      <c r="F141">
+        <v>6814.29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B142">
+        <v>209</v>
+      </c>
+      <c r="C142">
+        <v>84</v>
+      </c>
+      <c r="D142">
+        <v>125</v>
+      </c>
+      <c r="E142" t="s">
+        <v>146</v>
+      </c>
+      <c r="F142">
+        <v>15287.88</v>
+      </c>
+      <c r="G142" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B143">
+        <v>208</v>
+      </c>
+      <c r="C143">
+        <v>167</v>
+      </c>
+      <c r="D143">
+        <v>41</v>
+      </c>
+      <c r="E143" t="s">
+        <v>147</v>
+      </c>
+      <c r="F143">
+        <v>30558.66</v>
+      </c>
+      <c r="G143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B144">
+        <v>169</v>
+      </c>
+      <c r="C144">
+        <v>166</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144">
+        <v>25842.62</v>
+      </c>
+      <c r="G144" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B145">
+        <v>130</v>
+      </c>
+      <c r="C145">
+        <v>80</v>
+      </c>
+      <c r="D145">
+        <v>50</v>
+      </c>
+      <c r="E145" t="s">
+        <v>149</v>
+      </c>
+      <c r="F145">
+        <v>9402.9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B146">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>47</v>
+      </c>
+      <c r="D146">
         <v>39</v>
       </c>
-      <c r="E123" t="s">
-        <v>128</v>
-      </c>
-      <c r="F123">
-        <v>112881</v>
-      </c>
-      <c r="G123" t="s">
-        <v>250</v>
+      <c r="E146" t="s">
+        <v>150</v>
+      </c>
+      <c r="F146">
+        <v>6139.49</v>
+      </c>
+      <c r="G146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>48</v>
+      </c>
+      <c r="D147">
+        <v>32</v>
+      </c>
+      <c r="E147" t="s">
+        <v>151</v>
+      </c>
+      <c r="F147">
+        <v>6480.52</v>
+      </c>
+      <c r="G147" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B148">
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>36</v>
+      </c>
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+      <c r="F148">
+        <v>1913.42</v>
+      </c>
+      <c r="G148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B149">
+        <v>41</v>
+      </c>
+      <c r="C149">
+        <v>11</v>
+      </c>
+      <c r="D149">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>153</v>
+      </c>
+      <c r="F149">
+        <v>1738.81</v>
+      </c>
+      <c r="G149" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B150">
+        <v>13</v>
+      </c>
+      <c r="C150">
+        <v>11</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>154</v>
+      </c>
+      <c r="F150">
+        <v>1715.52</v>
+      </c>
+      <c r="G150" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>155</v>
+      </c>
+      <c r="F151">
+        <v>1318.45</v>
+      </c>
+      <c r="G151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B152">
+        <v>30</v>
+      </c>
+      <c r="C152">
+        <v>20</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152" t="s">
+        <v>156</v>
+      </c>
+      <c r="F152">
+        <v>2052.26</v>
+      </c>
+      <c r="G152" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B153">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>19</v>
+      </c>
+      <c r="D153">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>157</v>
+      </c>
+      <c r="F153">
+        <v>1916.29</v>
+      </c>
+      <c r="G153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B154">
+        <v>49</v>
+      </c>
+      <c r="C154">
+        <v>18</v>
+      </c>
+      <c r="D154">
+        <v>31</v>
+      </c>
+      <c r="E154" t="s">
+        <v>158</v>
+      </c>
+      <c r="F154">
+        <v>1726.99</v>
+      </c>
+      <c r="G154" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B155">
+        <v>50</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>47</v>
+      </c>
+      <c r="E155" t="s">
+        <v>159</v>
+      </c>
+      <c r="F155">
+        <v>335.38</v>
+      </c>
+      <c r="G155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>47</v>
+      </c>
+      <c r="E156" t="s">
+        <v>160</v>
+      </c>
+      <c r="F156">
+        <v>335.38</v>
+      </c>
+      <c r="G156" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B157">
+        <v>54</v>
+      </c>
+      <c r="C157">
+        <v>5</v>
+      </c>
+      <c r="D157">
+        <v>49</v>
+      </c>
+      <c r="E157" t="s">
+        <v>161</v>
+      </c>
+      <c r="F157">
+        <v>773.83</v>
+      </c>
+      <c r="G157" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B158">
+        <v>52</v>
+      </c>
+      <c r="C158">
+        <v>59</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>162</v>
+      </c>
+      <c r="F158">
+        <v>6547.1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B159">
+        <v>101</v>
+      </c>
+      <c r="C159">
+        <v>55</v>
+      </c>
+      <c r="D159">
+        <v>46</v>
+      </c>
+      <c r="E159" t="s">
+        <v>163</v>
+      </c>
+      <c r="F159">
+        <v>5810.12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>38</v>
+      </c>
+      <c r="D160">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>164</v>
+      </c>
+      <c r="F160">
+        <v>3661.14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B161">
+        <v>39</v>
+      </c>
+      <c r="C161">
+        <v>15</v>
+      </c>
+      <c r="D161">
+        <v>24</v>
+      </c>
+      <c r="E161" t="s">
+        <v>165</v>
+      </c>
+      <c r="F161">
+        <v>1680.32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B162">
+        <v>101</v>
+      </c>
+      <c r="C162">
+        <v>26</v>
+      </c>
+      <c r="D162">
+        <v>75</v>
+      </c>
+      <c r="E162" t="s">
+        <v>166</v>
+      </c>
+      <c r="F162">
+        <v>4367.97</v>
+      </c>
+      <c r="G162" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B163">
+        <v>107</v>
+      </c>
+      <c r="C163">
+        <v>43</v>
+      </c>
+      <c r="D163">
+        <v>64</v>
+      </c>
+      <c r="E163" t="s">
+        <v>167</v>
+      </c>
+      <c r="F163">
+        <v>7754.08</v>
+      </c>
+      <c r="G163" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B164">
+        <v>19</v>
+      </c>
+      <c r="C164">
+        <v>41</v>
+      </c>
+      <c r="D164">
+        <v>22</v>
+      </c>
+      <c r="E164" t="s">
+        <v>168</v>
+      </c>
+      <c r="F164">
+        <v>7717.34</v>
+      </c>
+      <c r="G164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B165">
+        <v>122</v>
+      </c>
+      <c r="C165">
+        <v>42</v>
+      </c>
+      <c r="D165">
+        <v>80</v>
+      </c>
+      <c r="E165" t="s">
+        <v>169</v>
+      </c>
+      <c r="F165">
+        <v>7257.59</v>
+      </c>
+      <c r="G165" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B166">
+        <v>123</v>
+      </c>
+      <c r="C166">
+        <v>63</v>
+      </c>
+      <c r="D166">
+        <v>60</v>
+      </c>
+      <c r="E166" t="s">
+        <v>170</v>
+      </c>
+      <c r="F166">
+        <v>5747.47</v>
+      </c>
+      <c r="G166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B167">
+        <v>6</v>
+      </c>
+      <c r="C167">
+        <v>55</v>
+      </c>
+      <c r="D167">
+        <v>49</v>
+      </c>
+      <c r="E167" t="s">
+        <v>171</v>
+      </c>
+      <c r="F167">
+        <v>5220.95</v>
+      </c>
+      <c r="G167" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>49</v>
+      </c>
+      <c r="D168">
+        <v>45</v>
+      </c>
+      <c r="E168" t="s">
+        <v>172</v>
+      </c>
+      <c r="F168">
+        <v>4171.25</v>
+      </c>
+      <c r="G168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="C169">
+        <v>32</v>
+      </c>
+      <c r="D169">
+        <v>29</v>
+      </c>
+      <c r="E169" t="s">
+        <v>173</v>
+      </c>
+      <c r="F169">
+        <v>2556.36</v>
+      </c>
+      <c r="G169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>174</v>
+      </c>
+      <c r="F170">
+        <v>902.73</v>
+      </c>
+      <c r="G170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>34</v>
+      </c>
+      <c r="D171">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>174</v>
+      </c>
+      <c r="F171">
+        <v>5740.65</v>
+      </c>
+      <c r="G171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>62</v>
+      </c>
+      <c r="D172">
+        <v>58</v>
+      </c>
+      <c r="E172" t="s">
+        <v>175</v>
+      </c>
+      <c r="F172">
+        <v>10516.95</v>
+      </c>
+      <c r="G172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>131</v>
+      </c>
+      <c r="D173">
+        <v>125</v>
+      </c>
+      <c r="E173" t="s">
+        <v>176</v>
+      </c>
+      <c r="F173">
+        <v>12470.75</v>
+      </c>
+      <c r="G173" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B174">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>134</v>
+      </c>
+      <c r="D174">
+        <v>124</v>
+      </c>
+      <c r="E174" t="s">
+        <v>177</v>
+      </c>
+      <c r="F174">
+        <v>14188.66</v>
+      </c>
+      <c r="G174" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B175">
+        <v>19</v>
+      </c>
+      <c r="C175">
+        <v>9</v>
+      </c>
+      <c r="D175">
+        <v>10</v>
+      </c>
+      <c r="E175" t="s">
+        <v>178</v>
+      </c>
+      <c r="F175">
+        <v>1099.04</v>
+      </c>
+      <c r="G175" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B176">
+        <v>85</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>80</v>
+      </c>
+      <c r="E176" t="s">
+        <v>179</v>
+      </c>
+      <c r="F176">
+        <v>880.35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B177">
+        <v>125</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>117</v>
+      </c>
+      <c r="E177" t="s">
+        <v>180</v>
+      </c>
+      <c r="F177">
+        <v>1595</v>
+      </c>
+      <c r="G177" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B178">
+        <v>125</v>
+      </c>
+      <c r="C178">
+        <v>9</v>
+      </c>
+      <c r="D178">
+        <v>116</v>
+      </c>
+      <c r="E178" t="s">
+        <v>181</v>
+      </c>
+      <c r="F178">
+        <v>1688.87</v>
+      </c>
+      <c r="G178" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B179">
+        <v>68</v>
+      </c>
+      <c r="C179">
+        <v>28</v>
+      </c>
+      <c r="D179">
+        <v>40</v>
+      </c>
+      <c r="E179" t="s">
+        <v>182</v>
+      </c>
+      <c r="F179">
+        <v>3706.99</v>
+      </c>
+      <c r="G179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B180">
+        <v>44</v>
+      </c>
+      <c r="C180">
+        <v>43</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+      <c r="F180">
+        <v>3614.51</v>
+      </c>
+      <c r="G180" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B181">
+        <v>46</v>
+      </c>
+      <c r="C181">
+        <v>40</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
+        <v>184</v>
+      </c>
+      <c r="F181">
+        <v>3276.1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B182">
+        <v>257</v>
+      </c>
+      <c r="C182">
+        <v>36</v>
+      </c>
+      <c r="D182">
+        <v>221</v>
+      </c>
+      <c r="E182" t="s">
+        <v>185</v>
+      </c>
+      <c r="F182">
+        <v>2967.33</v>
+      </c>
+      <c r="G182" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B183">
+        <v>267</v>
+      </c>
+      <c r="C183">
+        <v>25</v>
+      </c>
+      <c r="D183">
+        <v>242</v>
+      </c>
+      <c r="E183" t="s">
+        <v>186</v>
+      </c>
+      <c r="F183">
+        <v>2997.8</v>
+      </c>
+      <c r="G183" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B184">
+        <v>266</v>
+      </c>
+      <c r="C184">
+        <v>39</v>
+      </c>
+      <c r="D184">
+        <v>227</v>
+      </c>
+      <c r="E184" t="s">
+        <v>187</v>
+      </c>
+      <c r="F184">
+        <v>6172.5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B185">
+        <v>207</v>
+      </c>
+      <c r="C185">
+        <v>39</v>
+      </c>
+      <c r="D185">
+        <v>168</v>
+      </c>
+      <c r="E185" t="s">
+        <v>188</v>
+      </c>
+      <c r="F185">
+        <v>6155.24</v>
+      </c>
+      <c r="G185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B186">
+        <v>73</v>
+      </c>
+      <c r="C186">
+        <v>40</v>
+      </c>
+      <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186" t="s">
+        <v>189</v>
+      </c>
+      <c r="F186">
+        <v>6255.17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B187">
+        <v>22</v>
+      </c>
+      <c r="C187">
+        <v>17</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>190</v>
+      </c>
+      <c r="F187">
+        <v>1471.36</v>
+      </c>
+      <c r="G187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B188">
+        <v>23</v>
+      </c>
+      <c r="C188">
+        <v>16</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>191</v>
+      </c>
+      <c r="F188">
+        <v>1416.75</v>
+      </c>
+      <c r="G188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B189">
+        <v>19</v>
+      </c>
+      <c r="C189">
+        <v>14</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>192</v>
+      </c>
+      <c r="F189">
+        <v>1336.39</v>
+      </c>
+      <c r="G189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B190">
+        <v>54</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190">
+        <v>49</v>
+      </c>
+      <c r="E190" t="s">
+        <v>193</v>
+      </c>
+      <c r="F190">
+        <v>666.78</v>
+      </c>
+      <c r="G190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B191">
+        <v>219</v>
+      </c>
+      <c r="C191">
+        <v>4</v>
+      </c>
+      <c r="D191">
+        <v>215</v>
+      </c>
+      <c r="E191" t="s">
+        <v>194</v>
+      </c>
+      <c r="F191">
+        <v>464.83</v>
+      </c>
+      <c r="G191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B192">
+        <v>101</v>
+      </c>
+      <c r="C192">
+        <v>120</v>
+      </c>
+      <c r="D192">
+        <v>19</v>
+      </c>
+      <c r="E192" t="s">
+        <v>195</v>
+      </c>
+      <c r="F192">
+        <v>26470.4</v>
+      </c>
+      <c r="G192" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B193">
+        <v>101</v>
+      </c>
+      <c r="C193">
+        <v>118</v>
+      </c>
+      <c r="D193">
+        <v>17</v>
+      </c>
+      <c r="E193" t="s">
+        <v>196</v>
+      </c>
+      <c r="F193">
+        <v>26388.63</v>
+      </c>
+      <c r="G193" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B194">
+        <v>101</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>95</v>
+      </c>
+      <c r="E194" t="s">
+        <v>196</v>
+      </c>
+      <c r="F194">
+        <v>705.88</v>
+      </c>
+      <c r="G194" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B195">
+        <v>101</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>96</v>
+      </c>
+      <c r="E195" t="s">
+        <v>195</v>
+      </c>
+      <c r="F195">
+        <v>414.74</v>
+      </c>
+      <c r="G195" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B196">
+        <v>20</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+      <c r="D196">
+        <v>12</v>
+      </c>
+      <c r="E196" t="s">
+        <v>197</v>
+      </c>
+      <c r="F196">
+        <v>764.4</v>
+      </c>
+      <c r="G196" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>79</v>
+      </c>
+      <c r="D197">
+        <v>79</v>
+      </c>
+      <c r="E197" t="s">
+        <v>198</v>
+      </c>
+      <c r="F197">
+        <v>14255.58</v>
+      </c>
+      <c r="G197" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>130</v>
+      </c>
+      <c r="D198">
+        <v>126</v>
+      </c>
+      <c r="E198" t="s">
+        <v>199</v>
+      </c>
+      <c r="F198">
+        <v>24282.02</v>
+      </c>
+      <c r="G198" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>113</v>
+      </c>
+      <c r="D199">
+        <v>109</v>
+      </c>
+      <c r="E199" t="s">
+        <v>199</v>
+      </c>
+      <c r="F199">
+        <v>21303.13</v>
+      </c>
+      <c r="G199" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>200</v>
+      </c>
+      <c r="F200">
+        <v>1729.62</v>
+      </c>
+      <c r="G200" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>38</v>
+      </c>
+      <c r="D201">
+        <v>36</v>
+      </c>
+      <c r="E201" t="s">
+        <v>201</v>
+      </c>
+      <c r="F201">
+        <v>4599.89</v>
+      </c>
+      <c r="G201" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
